--- a/docs/permit_details.xlsx
+++ b/docs/permit_details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="732">
   <si>
     <t>MoE_region</t>
   </si>
@@ -27,10 +27,10 @@
     <t>watershed_code_20k</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>easting_9n</t>
+  </si>
+  <si>
+    <t>northing_9n</t>
   </si>
   <si>
     <t>uphab_gross_sub15_perc_km</t>
@@ -51,6 +51,9 @@
     <t>pscis_model_combined_id</t>
   </si>
   <si>
+    <t>pscis_model_combined_id.1</t>
+  </si>
+  <si>
     <t>pscis_stream_crossing_id</t>
   </si>
   <si>
@@ -318,6 +321,12 @@
     <t>Mudflat Ck</t>
   </si>
   <si>
+    <t>Owen Creek</t>
+  </si>
+  <si>
+    <t>Puport Creek</t>
+  </si>
+  <si>
     <t>460-600600-632006-620000-000000-000000-000000</t>
   </si>
   <si>
@@ -519,6 +528,9 @@
     <t>460-089200-000000-000000-000000-000000-000000</t>
   </si>
   <si>
+    <t>460-600600-239004-330022-000000-000000-000000</t>
+  </si>
+  <si>
     <t>400-431358-585806-700175</t>
   </si>
   <si>
@@ -771,6 +783,12 @@
     <t>400-431358-085514</t>
   </si>
   <si>
+    <t>400-431358-585806-266600-990817</t>
+  </si>
+  <si>
+    <t>400-431358-585806-266600-482974-123096-296678</t>
+  </si>
+  <si>
     <t>CT,DV</t>
   </si>
   <si>
@@ -889,6 +907,9 @@
   </si>
   <si>
     <t>CT,LNC,RB,SP</t>
+  </si>
+  <si>
+    <t>LSU,RB</t>
   </si>
   <si>
     <t xml:space="preserve"> Located 1,900m upstream of McBride Lake; high quality spawning and rearing habitat upstream; IMap BC shows crossing on mainline (Road ID R10644). </t>
@@ -1609,13 +1630,13 @@
     <t>c(914536.759625798, 1005585.13583462)</t>
   </si>
   <si>
-    <t>c(916467.895989412, 1005896.50081782)</t>
+    <t>c(916467.895989412, 1005896.50081781)</t>
   </si>
   <si>
     <t>c(921105.975388367, 1095574.37650787)</t>
   </si>
   <si>
-    <t>c(940785.501830967, 1069318.29920844)</t>
+    <t>c(940785.501830967, 1069318.29920845)</t>
   </si>
   <si>
     <t>c(937530.985322457, 1070801.69490244)</t>
@@ -1654,7 +1675,7 @@
     <t>c(942300.368430379, 1127127.53030109)</t>
   </si>
   <si>
-    <t>c(979521.341866861, 1016995.76159152)</t>
+    <t>c(979521.341866861, 1016995.76159151)</t>
   </si>
   <si>
     <t>c(981205.153185166, 1015953.35935659)</t>
@@ -1768,7 +1789,7 @@
     <t>c(986285.31816996, 1052462.08418059)</t>
   </si>
   <si>
-    <t>c(945249.299274406, 1053610.15072983)</t>
+    <t>c(945249.299274406, 1053610.15072984)</t>
   </si>
   <si>
     <t>c(945498.345040781, 1053856.48290403)</t>
@@ -1789,7 +1810,7 @@
     <t>c(948635.749606878, 1062531.8072691)</t>
   </si>
   <si>
-    <t>c(949110.089914773, 1062558.68981685)</t>
+    <t>c(949110.089914773, 1062558.68981684)</t>
   </si>
   <si>
     <t>c(949076.755936854, 1062525.98657259)</t>
@@ -1807,7 +1828,7 @@
     <t>c(914690.060013294, 1083241.84724531)</t>
   </si>
   <si>
-    <t>c(938348.630786241, 1089243.46723595)</t>
+    <t>c(938348.630786241, 1089243.46723594)</t>
   </si>
   <si>
     <t>c(939983.308343328, 1072197.51079565)</t>
@@ -1831,7 +1852,7 @@
     <t>c(945214.581084294, 1073184.20876842)</t>
   </si>
   <si>
-    <t>c(943490.167478006, 1071273.46249648)</t>
+    <t>c(943490.167478006, 1071273.46249647)</t>
   </si>
   <si>
     <t>c(944160.418224574, 1073938.04300767)</t>
@@ -1840,7 +1861,7 @@
     <t>c(934457.212640684, 1079572.3923223)</t>
   </si>
   <si>
-    <t>c(926770.125567836, 1079018.9064457)</t>
+    <t>c(926770.125567836, 1079018.90644569)</t>
   </si>
   <si>
     <t>c(926076.862394101, 1079550.50087299)</t>
@@ -1858,7 +1879,7 @@
     <t>c(927031.104046823, 1083633.61436473)</t>
   </si>
   <si>
-    <t>c(927009.178778601, 1083752.00615996)</t>
+    <t>c(927009.178778601, 1083752.00615995)</t>
   </si>
   <si>
     <t>c(927175.972357288, 1084834.07512294)</t>
@@ -1891,7 +1912,7 @@
     <t>c(909341.176294541, 1106135.86930942)</t>
   </si>
   <si>
-    <t>c(916476.943656794, 1103408.09057757)</t>
+    <t>c(916476.943656793, 1103408.09057756)</t>
   </si>
   <si>
     <t>c(917880.400258966, 1108702.73191418)</t>
@@ -1906,7 +1927,7 @@
     <t>c(921382.894071002, 1092859.05829523)</t>
   </si>
   <si>
-    <t>c(921664.428640638, 1090792.05263232)</t>
+    <t>c(921664.428640638, 1090792.05263231)</t>
   </si>
   <si>
     <t>c(921896.418130155, 1090964.83308262)</t>
@@ -1933,10 +1954,10 @@
     <t>c(923242.673733439, 1090105.11814992)</t>
   </si>
   <si>
-    <t>c(930037.853340858, 1093815.64620586)</t>
-  </si>
-  <si>
-    <t>c(914894.031616781, 1115717.25165875)</t>
+    <t>c(930037.853340858, 1093815.64620585)</t>
+  </si>
+  <si>
+    <t>c(914894.031616781, 1115717.25165874)</t>
   </si>
   <si>
     <t>c(914938.602475241, 1116130.94900461)</t>
@@ -1967,6 +1988,12 @@
   </si>
   <si>
     <t>c(906749.082682815, 1135687.88985781)</t>
+  </si>
+  <si>
+    <t>c(953681.829120341, 1006319.94486411)</t>
+  </si>
+  <si>
+    <t>c(946696.553794371, 1012743.55136223)</t>
   </si>
   <si>
     <t>Scientific Name</t>
@@ -2342,25 +2369,28 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E2" t="n">
-        <v>54.04645487650555</v>
+        <v>610757.9999999995</v>
       </c>
       <c r="F2" t="n">
-        <v>-127.30835616879466</v>
+        <v>5990014.000000002</v>
       </c>
       <c r="G2" t="n">
         <v>16.7</v>
@@ -2369,98 +2399,104 @@
         <v>1206.87</v>
       </c>
       <c r="I2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>100648.0</v>
       </c>
-      <c r="M2"/>
-      <c r="N2" t="n">
+      <c r="N2"/>
+      <c r="O2" t="n">
         <v>1.4001188E7</v>
       </c>
-      <c r="O2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="n">
         <v>42.0</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>512</v>
+      <c r="R2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
-        <v>54.04956035623842</v>
+        <v>612678.9999999993</v>
       </c>
       <c r="F3" t="n">
-        <v>-127.27888502387087</v>
+        <v>5990405.9999999935</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3"/>
+        <v>59</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="O3"/>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="n">
         <v>43.0</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>2.0</v>
       </c>
-      <c r="R3" t="s">
-        <v>513</v>
+      <c r="S3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E4" t="n">
-        <v>54.85360145243351</v>
+        <v>613516.0000000008</v>
       </c>
       <c r="F4" t="n">
-        <v>-127.2317774605253</v>
+        <v>6079932.999999996</v>
       </c>
       <c r="G4" t="n">
         <v>3.7</v>
@@ -2469,52 +2505,55 @@
         <v>402.88</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M4" t="n">
         <v>91665.0</v>
       </c>
-      <c r="M4"/>
-      <c r="N4" t="n">
+      <c r="N4"/>
+      <c r="O4" t="n">
         <v>1805548.0</v>
       </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="n">
         <v>45.0</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>3.0</v>
       </c>
-      <c r="R4" t="s">
-        <v>514</v>
+      <c r="S4" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E5" t="n">
-        <v>54.621086713599794</v>
+        <v>634344.9999999992</v>
       </c>
       <c r="F5" t="n">
-        <v>-126.91923748691221</v>
+        <v>6054617.0000000065</v>
       </c>
       <c r="G5" t="n">
         <v>33.0</v>
@@ -2523,52 +2562,55 @@
         <v>4521.67</v>
       </c>
       <c r="I5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J5" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M5" t="n">
         <v>9136.0</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>124504.0</v>
       </c>
-      <c r="N5"/>
-      <c r="O5" t="s">
-        <v>488</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="O5"/>
+      <c r="P5" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q5" t="n">
         <v>46.0</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>4.0</v>
       </c>
-      <c r="R5" t="s">
-        <v>515</v>
+      <c r="S5" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E6" t="n">
-        <v>54.63398587598237</v>
+        <v>631021.9999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-126.9700695190651</v>
+        <v>6055955.999999999</v>
       </c>
       <c r="G6" t="n">
         <v>7.9</v>
@@ -2577,98 +2619,104 @@
         <v>1529.01</v>
       </c>
       <c r="I6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J6" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M6" t="n">
         <v>91690.0</v>
       </c>
-      <c r="M6"/>
-      <c r="N6" t="n">
+      <c r="N6"/>
+      <c r="O6" t="n">
         <v>1805606.0</v>
       </c>
-      <c r="O6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="n">
         <v>47.0</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>5.0</v>
       </c>
-      <c r="R6" t="s">
-        <v>516</v>
+      <c r="S6" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" t="n">
-        <v>54.64212303937492</v>
+        <v>614204.0000000007</v>
       </c>
       <c r="F7" t="n">
-        <v>-127.23030752033291</v>
+        <v>6056407.000000001</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7"/>
+        <v>59</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="O7"/>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="n">
         <v>62.0</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>6.0</v>
       </c>
-      <c r="R7" t="s">
-        <v>517</v>
+      <c r="S7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E8" t="n">
-        <v>54.18209325582098</v>
+        <v>640968.0000000003</v>
       </c>
       <c r="F8" t="n">
-        <v>-126.83984495377669</v>
+        <v>6005937.000000003</v>
       </c>
       <c r="G8" t="n">
         <v>0.8</v>
@@ -2677,52 +2725,55 @@
         <v>3294.89</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J8" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>75514.0</v>
       </c>
-      <c r="M8"/>
-      <c r="N8" t="n">
+      <c r="N8"/>
+      <c r="O8" t="n">
         <v>1.4000712E7</v>
       </c>
-      <c r="O8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="n">
         <v>63.0</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>7.0</v>
       </c>
-      <c r="R8" t="s">
-        <v>518</v>
+      <c r="S8" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E9" t="n">
-        <v>54.19491311293675</v>
+        <v>629366.0000000006</v>
       </c>
       <c r="F9" t="n">
-        <v>-127.01704049549375</v>
+        <v>6007023.999999999</v>
       </c>
       <c r="G9" t="n">
         <v>5.2</v>
@@ -2731,52 +2782,55 @@
         <v>3154.14</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J9" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M9" t="n">
         <v>75541.0</v>
       </c>
-      <c r="M9"/>
-      <c r="N9" t="n">
+      <c r="N9"/>
+      <c r="O9" t="n">
         <v>1.4000766E7</v>
       </c>
-      <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="n">
         <v>64.0</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>8.0</v>
       </c>
-      <c r="R9" t="s">
-        <v>519</v>
+      <c r="S9" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E10" t="n">
-        <v>54.05842959418374</v>
+        <v>614907.0000000002</v>
       </c>
       <c r="F10" t="n">
-        <v>-127.24447619220877</v>
+        <v>5991447.999999997</v>
       </c>
       <c r="G10" t="n">
         <v>2.6</v>
@@ -2785,52 +2839,55 @@
         <v>429.56</v>
       </c>
       <c r="I10" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M10" t="n">
         <v>75489.0</v>
       </c>
-      <c r="M10"/>
-      <c r="N10" t="n">
+      <c r="N10"/>
+      <c r="O10" t="n">
         <v>1.4000666E7</v>
       </c>
-      <c r="O10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="P10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" t="n">
         <v>65.0</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>9.0</v>
       </c>
-      <c r="R10" t="s">
-        <v>520</v>
+      <c r="S10" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E11" t="n">
-        <v>54.158412040743286</v>
+        <v>675369.0000000003</v>
       </c>
       <c r="F11" t="n">
-        <v>-126.3141192047465</v>
+        <v>6004479.999999996</v>
       </c>
       <c r="G11" t="n">
         <v>2.2</v>
@@ -2839,52 +2896,55 @@
         <v>188.74</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M11" t="n">
         <v>234021.0</v>
       </c>
-      <c r="M11"/>
-      <c r="N11" t="n">
+      <c r="N11"/>
+      <c r="O11" t="n">
         <v>1805182.0</v>
       </c>
-      <c r="O11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="P11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" t="n">
         <v>66.0</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>10.0</v>
       </c>
-      <c r="R11" t="s">
-        <v>521</v>
+      <c r="S11" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E12" t="n">
-        <v>54.14646146334667</v>
+        <v>677100.0000000002</v>
       </c>
       <c r="F12" t="n">
-        <v>-126.2883834330184</v>
+        <v>6003214.999999996</v>
       </c>
       <c r="G12" t="n">
         <v>1.2</v>
@@ -2893,52 +2953,55 @@
         <v>127.21</v>
       </c>
       <c r="I12" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J12" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M12" t="n">
         <v>16558.0</v>
       </c>
-      <c r="M12"/>
-      <c r="N12" t="n">
+      <c r="N12"/>
+      <c r="O12" t="n">
         <v>1805183.0</v>
       </c>
-      <c r="O12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="P12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" t="n">
         <v>67.0</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>11.0</v>
       </c>
-      <c r="R12" t="s">
-        <v>522</v>
+      <c r="S12" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E13" t="n">
-        <v>54.36064576783093</v>
+        <v>643481.0000000006</v>
       </c>
       <c r="F13" t="n">
-        <v>-126.79180185151166</v>
+        <v>6025895.999999996</v>
       </c>
       <c r="G13" t="n">
         <v>5.0</v>
@@ -2947,52 +3010,55 @@
         <v>3626.29</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M13" t="n">
         <v>75547.0</v>
       </c>
-      <c r="M13"/>
-      <c r="N13" t="n">
+      <c r="N13"/>
+      <c r="O13" t="n">
         <v>1.4000798E7</v>
       </c>
-      <c r="O13" t="s">
-        <v>489</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="P13" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q13" t="n">
         <v>68.0</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>12.0</v>
       </c>
-      <c r="R13" t="s">
-        <v>523</v>
+      <c r="S13" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E14" t="n">
-        <v>54.19572127471856</v>
+        <v>632220.0000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>-126.97324831377087</v>
+        <v>6007195.000000002</v>
       </c>
       <c r="G14" t="n">
         <v>1.0</v>
@@ -3001,98 +3067,104 @@
         <v>2099.92</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M14" t="n">
         <v>75561.0</v>
       </c>
-      <c r="M14"/>
-      <c r="N14" t="n">
+      <c r="N14"/>
+      <c r="O14" t="n">
         <v>1.4000819E7</v>
       </c>
-      <c r="O14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="P14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" t="n">
         <v>69.0</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>13.0</v>
       </c>
-      <c r="R14" t="s">
-        <v>524</v>
+      <c r="S14" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" t="n">
-        <v>55.11451745633063</v>
+        <v>638683.9999999997</v>
       </c>
       <c r="F15" t="n">
-        <v>-126.82561950121082</v>
+        <v>6109693.999999997</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15"/>
+        <v>59</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="O15"/>
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="n">
         <v>74.0</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>14.0</v>
       </c>
-      <c r="R15" t="s">
-        <v>525</v>
+      <c r="S15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E16" t="n">
-        <v>55.127088897090275</v>
+        <v>637557.0000000003</v>
       </c>
       <c r="F16" t="n">
-        <v>-126.84261446661132</v>
+        <v>6111058.999999995</v>
       </c>
       <c r="G16" t="n">
         <v>7.7</v>
@@ -3101,52 +3173,55 @@
         <v>458.64</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M16" t="n">
         <v>91518.0</v>
       </c>
-      <c r="M16"/>
-      <c r="N16" t="n">
+      <c r="N16"/>
+      <c r="O16" t="n">
         <v>1804827.0</v>
       </c>
-      <c r="O16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="P16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" t="n">
         <v>75.0</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>15.0</v>
       </c>
-      <c r="R16" t="s">
-        <v>526</v>
+      <c r="S16" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E17" t="n">
-        <v>55.13910977945461</v>
+        <v>633398.0000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>-126.90722366865079</v>
+        <v>6112271.000000002</v>
       </c>
       <c r="G17" t="n">
         <v>2.3</v>
@@ -3155,52 +3230,55 @@
         <v>151.34</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M17" t="n">
         <v>118752.0</v>
       </c>
-      <c r="M17"/>
-      <c r="N17" t="n">
+      <c r="N17"/>
+      <c r="O17" t="n">
         <v>1801033.0</v>
       </c>
-      <c r="O17" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="P17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" t="n">
         <v>117.0</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>16.0</v>
       </c>
-      <c r="R17" t="s">
-        <v>527</v>
+      <c r="S17" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E18" t="n">
-        <v>54.1553595884215</v>
+        <v>675369.0000000006</v>
       </c>
       <c r="F18" t="n">
-        <v>-126.31431697251166</v>
+        <v>6004139.999999998</v>
       </c>
       <c r="G18" t="n">
         <v>1.9</v>
@@ -3209,52 +3287,55 @@
         <v>188.74</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M18" t="n">
         <v>234026.0</v>
       </c>
-      <c r="M18"/>
-      <c r="N18" t="n">
+      <c r="N18"/>
+      <c r="O18" t="n">
         <v>1805455.0</v>
       </c>
-      <c r="O18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="P18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" t="n">
         <v>124.0</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>17.0</v>
       </c>
-      <c r="R18" t="s">
-        <v>528</v>
+      <c r="S18" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E19" t="n">
-        <v>54.14608440305497</v>
+        <v>677099.9999999992</v>
       </c>
       <c r="F19" t="n">
-        <v>-126.28840808825464</v>
+        <v>6003173.000000001</v>
       </c>
       <c r="G19" t="n">
         <v>1.1</v>
@@ -3263,52 +3344,55 @@
         <v>127.21</v>
       </c>
       <c r="I19" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J19" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M19" t="n">
         <v>16542.0</v>
       </c>
-      <c r="M19"/>
-      <c r="N19" t="n">
+      <c r="N19"/>
+      <c r="O19" t="n">
         <v>1803661.0</v>
       </c>
-      <c r="O19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="P19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" t="n">
         <v>125.0</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>18.0</v>
       </c>
-      <c r="R19" t="s">
-        <v>529</v>
+      <c r="S19" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E20" t="n">
-        <v>55.24063632189308</v>
+        <v>586629.9999999998</v>
       </c>
       <c r="F20" t="n">
-        <v>-127.63752954365037</v>
+        <v>6122415.999999999</v>
       </c>
       <c r="G20" t="n">
         <v>24.5</v>
@@ -3317,52 +3401,55 @@
         <v>2861.47</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J20" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K20" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M20" t="n">
         <v>9031.0</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>124420.0</v>
       </c>
-      <c r="N20"/>
-      <c r="O20" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="O20"/>
+      <c r="P20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" t="n">
         <v>137.0</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>19.0</v>
       </c>
-      <c r="R20" t="s">
-        <v>530</v>
+      <c r="S20" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E21" t="n">
-        <v>55.0100497939613</v>
+        <v>606629.0000000003</v>
       </c>
       <c r="F21" t="n">
-        <v>-127.33260507744555</v>
+        <v>6097181.0</v>
       </c>
       <c r="G21" t="n">
         <v>22.1</v>
@@ -3371,52 +3458,55 @@
         <v>8063.78</v>
       </c>
       <c r="I21" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J21" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K21" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M21" t="n">
         <v>8945.0</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>123770.0</v>
       </c>
-      <c r="N21"/>
-      <c r="O21" t="s">
-        <v>58</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" t="n">
         <v>138.0</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>20.0</v>
       </c>
-      <c r="R21" t="s">
-        <v>531</v>
+      <c r="S21" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E22" t="n">
-        <v>54.93950715480821</v>
+        <v>607724.9999999998</v>
       </c>
       <c r="F22" t="n">
-        <v>-127.3184157809126</v>
+        <v>6089354.000000005</v>
       </c>
       <c r="G22" t="n">
         <v>88.2</v>
@@ -3425,54 +3515,57 @@
         <v>11987.48</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J22" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K22" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" t="n">
         <v>9025.0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>57944.0</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>1800167.0</v>
       </c>
-      <c r="O22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="P22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" t="n">
         <v>139.0</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>21.0</v>
       </c>
-      <c r="R22" t="s">
-        <v>532</v>
+      <c r="S22" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E23" t="n">
-        <v>54.6843074970991</v>
+        <v>627204.0000000003</v>
       </c>
       <c r="F23" t="n">
-        <v>-127.02679188981105</v>
+        <v>6061450.0</v>
       </c>
       <c r="G23" t="n">
         <v>22.4</v>
@@ -3481,52 +3574,55 @@
         <v>3498.79</v>
       </c>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J23" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K23" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M23" t="n">
         <v>8557.0</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>123445.0</v>
       </c>
-      <c r="N23"/>
-      <c r="O23" t="s">
-        <v>490</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="O23"/>
+      <c r="P23" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q23" t="n">
         <v>140.0</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>22.0</v>
       </c>
-      <c r="R23" t="s">
-        <v>533</v>
+      <c r="S23" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E24" t="n">
-        <v>54.675837403937045</v>
+        <v>628056.9999999995</v>
       </c>
       <c r="F24" t="n">
-        <v>-127.01397190474633</v>
+        <v>6060530.999999997</v>
       </c>
       <c r="G24" t="n">
         <v>20.4</v>
@@ -3535,52 +3631,55 @@
         <v>1590.96</v>
       </c>
       <c r="I24" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J24" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K24" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M24" t="n">
         <v>8302.0</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>58158.0</v>
       </c>
-      <c r="N24"/>
-      <c r="O24" t="s">
-        <v>491</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="O24"/>
+      <c r="P24" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q24" t="n">
         <v>141.0</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>23.0</v>
       </c>
-      <c r="R24" t="s">
-        <v>534</v>
+      <c r="S24" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E25" t="n">
-        <v>54.620942021039994</v>
+        <v>638504.0000000005</v>
       </c>
       <c r="F25" t="n">
-        <v>-126.85481990705063</v>
+        <v>6054726.000000001</v>
       </c>
       <c r="G25" t="n">
         <v>45.9</v>
@@ -3589,54 +3688,57 @@
         <v>3064.73</v>
       </c>
       <c r="I25" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J25" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K25" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M25" t="n">
         <v>9040.0</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>123393.0</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>1800265.0</v>
       </c>
-      <c r="O25" t="s">
-        <v>492</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="P25" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q25" t="n">
         <v>142.0</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>24.0</v>
       </c>
-      <c r="R25" t="s">
-        <v>535</v>
+      <c r="S25" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E26" t="n">
-        <v>54.619721997363186</v>
+        <v>638630.0</v>
       </c>
       <c r="F26" t="n">
-        <v>-126.85293235738874</v>
+        <v>6054593.999999997</v>
       </c>
       <c r="G26" t="n">
         <v>6.4</v>
@@ -3645,52 +3747,55 @@
         <v>479.87</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M26" t="n">
         <v>118396.0</v>
       </c>
-      <c r="M26"/>
-      <c r="N26" t="n">
+      <c r="N26"/>
+      <c r="O26" t="n">
         <v>1802823.0</v>
       </c>
-      <c r="O26" t="s">
-        <v>58</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="P26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" t="n">
         <v>143.0</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>25.0</v>
       </c>
-      <c r="R26" t="s">
-        <v>536</v>
+      <c r="S26" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E27" t="n">
-        <v>54.594009373977</v>
+        <v>639871.9999999998</v>
       </c>
       <c r="F27" t="n">
-        <v>-126.83505902234421</v>
+        <v>6051768.9999999935</v>
       </c>
       <c r="G27" t="n">
         <v>65.8</v>
@@ -3699,54 +3804,57 @@
         <v>7638.1</v>
       </c>
       <c r="I27" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J27" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K27" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M27" t="n">
         <v>9111.0</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>195289.0</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>1800100.0</v>
       </c>
-      <c r="O27" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="P27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" t="n">
         <v>144.0</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>26.0</v>
       </c>
-      <c r="R27" t="s">
-        <v>537</v>
+      <c r="S27" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E28" t="n">
-        <v>54.39059263011933</v>
+        <v>649181.9999999991</v>
       </c>
       <c r="F28" t="n">
-        <v>-126.70237530888583</v>
+        <v>6029413.000000004</v>
       </c>
       <c r="G28" t="n">
         <v>1.9</v>
@@ -3755,52 +3863,55 @@
         <v>321.04</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M28" t="n">
         <v>118129.0</v>
       </c>
-      <c r="M28"/>
-      <c r="N28" t="n">
+      <c r="N28"/>
+      <c r="O28" t="n">
         <v>1803407.0</v>
       </c>
-      <c r="O28" t="s">
-        <v>58</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="P28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" t="n">
         <v>145.0</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>27.0</v>
       </c>
-      <c r="R28" t="s">
-        <v>538</v>
+      <c r="S28" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E29" t="n">
-        <v>54.46352311890358</v>
+        <v>660452.9999999998</v>
       </c>
       <c r="F29" t="n">
-        <v>-126.52435698290266</v>
+        <v>6037917.000000002</v>
       </c>
       <c r="G29" t="n">
         <v>12.6</v>
@@ -3809,52 +3920,55 @@
         <v>2453.42</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M29" t="n">
         <v>33264.0</v>
       </c>
-      <c r="M29"/>
-      <c r="N29" t="n">
+      <c r="N29"/>
+      <c r="O29" t="n">
         <v>1800076.0</v>
       </c>
-      <c r="O29" t="s">
-        <v>58</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="P29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" t="n">
         <v>146.0</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>28.0</v>
       </c>
-      <c r="R29" t="s">
-        <v>539</v>
+      <c r="S29" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E30" t="n">
-        <v>54.51925636551582</v>
+        <v>666925.0000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>-126.42097060054701</v>
+        <v>6044357.000000001</v>
       </c>
       <c r="G30" t="n">
         <v>142.2</v>
@@ -3863,52 +3977,55 @@
         <v>8993.12</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J30" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M30" t="n">
         <v>16412.0</v>
       </c>
-      <c r="M30"/>
-      <c r="N30" t="n">
+      <c r="N30"/>
+      <c r="O30" t="n">
         <v>1800062.0</v>
       </c>
-      <c r="O30" t="s">
-        <v>493</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="P30" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q30" t="n">
         <v>147.0</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>29.0</v>
       </c>
-      <c r="R30" t="s">
-        <v>540</v>
+      <c r="S30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E31" t="n">
-        <v>54.52177165773161</v>
+        <v>670214.0000000003</v>
       </c>
       <c r="F31" t="n">
-        <v>-126.36998154048682</v>
+        <v>6044758.999999997</v>
       </c>
       <c r="G31" t="n">
         <v>79.5</v>
@@ -3917,52 +4034,55 @@
         <v>4351.68</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M31" t="n">
         <v>33289.0</v>
       </c>
-      <c r="M31"/>
-      <c r="N31" t="n">
+      <c r="N31"/>
+      <c r="O31" t="n">
         <v>1800213.0</v>
       </c>
-      <c r="O31" t="s">
-        <v>494</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="P31" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q31" t="n">
         <v>148.0</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>30.0</v>
       </c>
-      <c r="R31" t="s">
-        <v>541</v>
+      <c r="S31" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E32" t="n">
-        <v>54.51569508777328</v>
+        <v>672335.9999999991</v>
       </c>
       <c r="F32" t="n">
-        <v>-126.33758189427351</v>
+        <v>6044162.000000004</v>
       </c>
       <c r="G32" t="n">
         <v>270.4</v>
@@ -3971,52 +4091,55 @@
         <v>16126.32</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M32" t="n">
         <v>16411.0</v>
       </c>
-      <c r="M32"/>
-      <c r="N32" t="n">
+      <c r="N32"/>
+      <c r="O32" t="n">
         <v>1800060.0</v>
       </c>
-      <c r="O32" t="s">
-        <v>58</v>
-      </c>
-      <c r="P32" t="n">
+      <c r="P32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q32" t="n">
         <v>149.0</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>31.0</v>
       </c>
-      <c r="R32" t="s">
-        <v>542</v>
+      <c r="S32" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E33" t="n">
-        <v>54.475800610242025</v>
+        <v>680394.9999999998</v>
       </c>
       <c r="F33" t="n">
-        <v>-126.21576187648937</v>
+        <v>6040029.999999999</v>
       </c>
       <c r="G33" t="n">
         <v>20.0</v>
@@ -4025,52 +4148,55 @@
         <v>1786.23</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M33" t="n">
         <v>16425.0</v>
       </c>
-      <c r="M33"/>
-      <c r="N33" t="n">
+      <c r="N33"/>
+      <c r="O33" t="n">
         <v>1800356.0</v>
       </c>
-      <c r="O33" t="s">
-        <v>58</v>
-      </c>
-      <c r="P33" t="n">
+      <c r="P33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" t="n">
         <v>150.0</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>32.0</v>
       </c>
-      <c r="R33" t="s">
-        <v>543</v>
+      <c r="S33" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E34" t="n">
-        <v>54.402455202908</v>
+        <v>692400.0000000006</v>
       </c>
       <c r="F34" t="n">
-        <v>-126.0357283868859</v>
+        <v>6032348.999999997</v>
       </c>
       <c r="G34" t="n">
         <v>126.4</v>
@@ -4079,52 +4205,55 @@
         <v>9376.76</v>
       </c>
       <c r="I34" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J34" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M34" t="n">
         <v>91264.0</v>
       </c>
-      <c r="M34"/>
-      <c r="N34" t="n">
+      <c r="N34"/>
+      <c r="O34" t="n">
         <v>1800050.0</v>
       </c>
-      <c r="O34" t="s">
-        <v>495</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="P34" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q34" t="n">
         <v>151.0</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>33.0</v>
       </c>
-      <c r="R34" t="s">
-        <v>544</v>
+      <c r="S34" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E35" t="n">
-        <v>54.49429802980913</v>
+        <v>662917.9999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>-126.48442742365917</v>
+        <v>6041431.999999991</v>
       </c>
       <c r="G35" t="n">
         <v>0.6</v>
@@ -4133,52 +4262,55 @@
         <v>25.16</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J35" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M35" t="n">
         <v>33262.0</v>
       </c>
-      <c r="M35"/>
-      <c r="N35" t="n">
+      <c r="N35"/>
+      <c r="O35" t="n">
         <v>1800072.0</v>
       </c>
-      <c r="O35" t="s">
-        <v>58</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="P35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" t="n">
         <v>152.0</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>34.0</v>
       </c>
-      <c r="R35" t="s">
-        <v>545</v>
+      <c r="S35" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E36" t="n">
-        <v>54.51238732694527</v>
+        <v>674864.9999999997</v>
       </c>
       <c r="F36" t="n">
-        <v>-126.29872043145424</v>
+        <v>6043890.000000003</v>
       </c>
       <c r="G36" t="n">
         <v>23.6</v>
@@ -4187,52 +4319,55 @@
         <v>3399.32</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M36" t="n">
         <v>33287.0</v>
       </c>
-      <c r="M36"/>
-      <c r="N36" t="n">
+      <c r="N36"/>
+      <c r="O36" t="n">
         <v>1800193.0</v>
       </c>
-      <c r="O36" t="s">
-        <v>58</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="P36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" t="n">
         <v>153.0</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>35.0</v>
       </c>
-      <c r="R36" t="s">
-        <v>546</v>
+      <c r="S36" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E37" t="n">
-        <v>54.289962252246134</v>
+        <v>667634.0000000007</v>
       </c>
       <c r="F37" t="n">
-        <v>-126.42443065929457</v>
+        <v>6018844.000000002</v>
       </c>
       <c r="G37" t="n">
         <v>2.8</v>
@@ -4241,52 +4376,55 @@
         <v>90.04</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M37" t="n">
         <v>118598.0</v>
       </c>
-      <c r="M37"/>
-      <c r="N37" t="n">
+      <c r="N37"/>
+      <c r="O37" t="n">
         <v>1800248.0</v>
       </c>
-      <c r="O37" t="s">
-        <v>58</v>
-      </c>
-      <c r="P37" t="n">
+      <c r="P37" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" t="n">
         <v>154.0</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>36.0</v>
       </c>
-      <c r="R37" t="s">
-        <v>547</v>
+      <c r="S37" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E38" t="n">
-        <v>54.174259560584076</v>
+        <v>640910.0000000005</v>
       </c>
       <c r="F38" t="n">
-        <v>-126.84114208382043</v>
+        <v>6005062.999999996</v>
       </c>
       <c r="G38" t="n">
         <v>2.7</v>
@@ -4295,52 +4433,55 @@
         <v>409.34</v>
       </c>
       <c r="I38" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M38" t="n">
         <v>75656.0</v>
       </c>
-      <c r="M38"/>
-      <c r="N38" t="n">
+      <c r="N38"/>
+      <c r="O38" t="n">
         <v>1.4001004E7</v>
       </c>
-      <c r="O38" t="s">
-        <v>58</v>
-      </c>
-      <c r="P38" t="n">
+      <c r="P38" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" t="n">
         <v>162.0</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>37.0</v>
       </c>
-      <c r="R38" t="s">
-        <v>548</v>
+      <c r="S38" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E39" t="n">
-        <v>54.11723681662795</v>
+        <v>645047.0000000006</v>
       </c>
       <c r="F39" t="n">
-        <v>-126.78080276933589</v>
+        <v>5998842.000000001</v>
       </c>
       <c r="G39" t="n">
         <v>11.4</v>
@@ -4349,52 +4490,55 @@
         <v>792.42</v>
       </c>
       <c r="I39" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M39" t="n">
         <v>75749.0</v>
       </c>
-      <c r="M39"/>
-      <c r="N39" t="n">
+      <c r="N39"/>
+      <c r="O39" t="n">
         <v>1.4001179E7</v>
       </c>
-      <c r="O39" t="s">
-        <v>58</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="P39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" t="n">
         <v>163.0</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>38.0</v>
       </c>
-      <c r="R39" t="s">
-        <v>549</v>
+      <c r="S39" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E40" t="n">
-        <v>54.63195882406054</v>
+        <v>630665.0000000026</v>
       </c>
       <c r="F40" t="n">
-        <v>-126.97570201313383</v>
+        <v>6055719.999999998</v>
       </c>
       <c r="G40" t="n">
         <v>7.5</v>
@@ -4403,50 +4547,53 @@
         <v>1488.69</v>
       </c>
       <c r="I40" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J40" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K40" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="L40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M40" t="n">
         <v>9144.0</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>124501.0</v>
       </c>
-      <c r="N40"/>
-      <c r="O40" t="s">
-        <v>496</v>
-      </c>
-      <c r="P40"/>
-      <c r="Q40" t="n">
+      <c r="O40"/>
+      <c r="P40" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q40"/>
+      <c r="R40" t="n">
         <v>39.0</v>
       </c>
-      <c r="R40" t="s">
-        <v>550</v>
+      <c r="S40" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E41" t="n">
-        <v>54.67520696223939</v>
+        <v>627639.0000000022</v>
       </c>
       <c r="F41" t="n">
-        <v>-127.02048617434437</v>
+        <v>6060448.999999999</v>
       </c>
       <c r="G41" t="n">
         <v>20.8</v>
@@ -4455,50 +4602,53 @@
         <v>1590.96</v>
       </c>
       <c r="I41" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J41" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="L41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M41" t="n">
         <v>8301.0</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>58159.0</v>
       </c>
-      <c r="N41"/>
-      <c r="O41" t="s">
-        <v>497</v>
-      </c>
-      <c r="P41"/>
-      <c r="Q41" t="n">
+      <c r="O41"/>
+      <c r="P41" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q41"/>
+      <c r="R41" t="n">
         <v>40.0</v>
       </c>
-      <c r="R41" t="s">
-        <v>551</v>
+      <c r="S41" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E42" t="n">
-        <v>54.59332345799477</v>
+        <v>640014.0000000023</v>
       </c>
       <c r="F42" t="n">
-        <v>-126.83289723288246</v>
+        <v>6051696.999999998</v>
       </c>
       <c r="G42" t="n">
         <v>12.6</v>
@@ -4507,50 +4657,53 @@
         <v>1710.59</v>
       </c>
       <c r="I42" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="J42" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M42" t="n">
         <v>8812.0</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>195290.0</v>
       </c>
-      <c r="N42"/>
-      <c r="O42" t="s">
-        <v>498</v>
-      </c>
-      <c r="P42"/>
-      <c r="Q42" t="n">
+      <c r="O42"/>
+      <c r="P42" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q42"/>
+      <c r="R42" t="n">
         <v>41.0</v>
       </c>
-      <c r="R42" t="s">
-        <v>552</v>
+      <c r="S42" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E43" t="n">
-        <v>54.59183824006667</v>
+        <v>640899.0000000019</v>
       </c>
       <c r="F43" t="n">
-        <v>-126.8192766338281</v>
+        <v>6051558.999999997</v>
       </c>
       <c r="G43" t="n">
         <v>10.9</v>
@@ -4559,50 +4712,53 @@
         <v>1341.75</v>
       </c>
       <c r="I43" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M43" t="n">
         <v>8813.0</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>195288.0</v>
       </c>
-      <c r="N43"/>
-      <c r="O43" t="s">
-        <v>499</v>
-      </c>
-      <c r="P43"/>
-      <c r="Q43" t="n">
+      <c r="O43"/>
+      <c r="P43" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q43"/>
+      <c r="R43" t="n">
         <v>42.0</v>
       </c>
-      <c r="R43" t="s">
-        <v>553</v>
+      <c r="S43" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E44" t="n">
-        <v>54.57218395602881</v>
+        <v>641624.0000000015</v>
       </c>
       <c r="F44" t="n">
-        <v>-126.80910907141107</v>
+        <v>6049392.999999996</v>
       </c>
       <c r="G44" t="n">
         <v>31.7</v>
@@ -4611,50 +4767,53 @@
         <v>4309.2</v>
       </c>
       <c r="I44" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J44" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K44" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M44" t="n">
         <v>8613.0</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>123377.0</v>
       </c>
-      <c r="N44"/>
-      <c r="O44" t="s">
-        <v>500</v>
-      </c>
-      <c r="P44"/>
-      <c r="Q44" t="n">
+      <c r="O44"/>
+      <c r="P44" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q44"/>
+      <c r="R44" t="n">
         <v>43.0</v>
       </c>
-      <c r="R44" t="s">
-        <v>554</v>
+      <c r="S44" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E45" t="n">
-        <v>54.68708373614475</v>
+        <v>627520.0000000016</v>
       </c>
       <c r="F45" t="n">
-        <v>-127.02175435022998</v>
+        <v>6061767.999999997</v>
       </c>
       <c r="G45" t="n">
         <v>21.9</v>
@@ -4663,50 +4822,53 @@
         <v>3498.79</v>
       </c>
       <c r="I45" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K45" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M45" t="n">
         <v>8558.0</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>123446.0</v>
       </c>
-      <c r="N45"/>
-      <c r="O45" t="s">
-        <v>501</v>
-      </c>
-      <c r="P45"/>
-      <c r="Q45" t="n">
+      <c r="O45"/>
+      <c r="P45" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q45"/>
+      <c r="R45" t="n">
         <v>44.0</v>
       </c>
-      <c r="R45" t="s">
-        <v>555</v>
+      <c r="S45" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E46" t="n">
-        <v>54.67689719224893</v>
+        <v>628269.0000000014</v>
       </c>
       <c r="F46" t="n">
-        <v>-127.01063174462578</v>
+        <v>6060654.999999996</v>
       </c>
       <c r="G46" t="n">
         <v>20.1</v>
@@ -4715,52 +4877,55 @@
         <v>1590.96</v>
       </c>
       <c r="I46" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J46" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="L46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M46" t="n">
         <v>8303.0</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>123544.0</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>1801300.0</v>
       </c>
-      <c r="O46" t="s">
-        <v>502</v>
-      </c>
-      <c r="P46"/>
-      <c r="Q46" t="n">
+      <c r="P46" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q46"/>
+      <c r="R46" t="n">
         <v>45.0</v>
       </c>
-      <c r="R46" t="s">
-        <v>556</v>
+      <c r="S46" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E47" t="n">
-        <v>54.659493297608776</v>
+        <v>627552.0000000013</v>
       </c>
       <c r="F47" t="n">
-        <v>-127.02259934945752</v>
+        <v>6058696.999999998</v>
       </c>
       <c r="G47" t="n">
         <v>33.5</v>
@@ -4769,50 +4934,53 @@
         <v>4140.63</v>
       </c>
       <c r="I47" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J47" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K47" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M47" t="n">
         <v>9150.0</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>124500.0</v>
       </c>
-      <c r="N47"/>
-      <c r="O47" t="s">
-        <v>503</v>
-      </c>
-      <c r="P47"/>
-      <c r="Q47" t="n">
+      <c r="O47"/>
+      <c r="P47" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q47"/>
+      <c r="R47" t="n">
         <v>46.0</v>
       </c>
-      <c r="R47" t="s">
-        <v>557</v>
+      <c r="S47" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E48" t="n">
-        <v>54.50840826252036</v>
+        <v>674376.0000000014</v>
       </c>
       <c r="F48" t="n">
-        <v>-126.30653817633187</v>
+        <v>6043427.9999999935</v>
       </c>
       <c r="G48" t="n">
         <v>27.5</v>
@@ -4821,50 +4989,53 @@
         <v>3655.09</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J48" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M48" t="n">
         <v>233965.0</v>
       </c>
-      <c r="M48"/>
-      <c r="N48" t="n">
+      <c r="N48"/>
+      <c r="O48" t="n">
         <v>1800048.0</v>
       </c>
-      <c r="O48" t="s">
-        <v>504</v>
-      </c>
-      <c r="P48"/>
-      <c r="Q48" t="n">
+      <c r="P48" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q48"/>
+      <c r="R48" t="n">
         <v>47.0</v>
       </c>
-      <c r="R48" t="s">
-        <v>558</v>
+      <c r="S48" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E49" t="n">
-        <v>54.62161817050166</v>
+        <v>638560.0000000015</v>
       </c>
       <c r="F49" t="n">
-        <v>-126.85391683213369</v>
+        <v>6054802.999999999</v>
       </c>
       <c r="G49" t="n">
         <v>45.8</v>
@@ -4873,50 +5044,53 @@
         <v>3064.73</v>
       </c>
       <c r="I49" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J49" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K49" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M49" t="n">
         <v>9041.0</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>123392.0</v>
       </c>
-      <c r="N49"/>
-      <c r="O49" t="s">
-        <v>505</v>
-      </c>
-      <c r="P49"/>
-      <c r="Q49" t="n">
+      <c r="O49"/>
+      <c r="P49" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q49"/>
+      <c r="R49" t="n">
         <v>48.0</v>
       </c>
-      <c r="R49" t="s">
-        <v>559</v>
+      <c r="S49" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E50" t="n">
-        <v>54.59221824990498</v>
+        <v>639789.0000000021</v>
       </c>
       <c r="F50" t="n">
-        <v>-126.83643887843711</v>
+        <v>6051566.9999999935</v>
       </c>
       <c r="G50" t="n">
         <v>78.7</v>
@@ -4925,100 +5099,106 @@
         <v>9571.59</v>
       </c>
       <c r="I50" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J50" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M50" t="n">
         <v>91266.0</v>
       </c>
-      <c r="M50"/>
-      <c r="N50" t="n">
+      <c r="N50"/>
+      <c r="O50" t="n">
         <v>1800101.0</v>
       </c>
-      <c r="O50" t="s">
-        <v>506</v>
-      </c>
-      <c r="P50"/>
-      <c r="Q50" t="n">
+      <c r="P50" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q50"/>
+      <c r="R50" t="n">
         <v>49.0</v>
       </c>
-      <c r="R50" t="s">
-        <v>560</v>
+      <c r="S50" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E51" t="n">
-        <v>54.56872967641225</v>
+        <v>642093.0000000017</v>
       </c>
       <c r="F51" t="n">
-        <v>-126.80203852125288</v>
+        <v>6049022.999999996</v>
       </c>
       <c r="G51" t="n">
         <v>0.5</v>
       </c>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M51" t="n">
         <v>33325.0</v>
       </c>
-      <c r="M51"/>
-      <c r="N51" t="n">
+      <c r="N51"/>
+      <c r="O51" t="n">
         <v>1800413.0</v>
       </c>
-      <c r="O51" t="s">
-        <v>507</v>
-      </c>
-      <c r="P51"/>
-      <c r="Q51" t="n">
+      <c r="P51" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q51"/>
+      <c r="R51" t="n">
         <v>50.0</v>
       </c>
-      <c r="R51" t="s">
-        <v>561</v>
+      <c r="S51" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E52" t="n">
-        <v>54.42963853703431</v>
+        <v>645303.0000000015</v>
       </c>
       <c r="F52" t="n">
-        <v>-126.75999935735865</v>
+        <v>6033635.999999998</v>
       </c>
       <c r="G52" t="n">
         <v>38.7</v>
@@ -5027,144 +5207,153 @@
         <v>3054.25</v>
       </c>
       <c r="I52" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J52" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M52" t="n">
         <v>33278.0</v>
       </c>
-      <c r="M52"/>
-      <c r="N52" t="n">
+      <c r="N52"/>
+      <c r="O52" t="n">
         <v>1800154.0</v>
       </c>
-      <c r="O52" t="s">
-        <v>508</v>
-      </c>
-      <c r="P52"/>
-      <c r="Q52" t="n">
+      <c r="P52" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q52"/>
+      <c r="R52" t="n">
         <v>51.0</v>
       </c>
-      <c r="R52" t="s">
-        <v>562</v>
+      <c r="S52" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E53" t="n">
-        <v>54.200766673403145</v>
+        <v>638690.0000000014</v>
       </c>
       <c r="F53" t="n">
-        <v>-126.8737989646786</v>
+        <v>6007946.999999999</v>
       </c>
       <c r="G53" t="n">
         <v>0.3</v>
       </c>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J53" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M53" t="n">
         <v>172661.0</v>
       </c>
-      <c r="M53"/>
-      <c r="N53" t="n">
+      <c r="N53"/>
+      <c r="O53" t="n">
         <v>1.4000822E7</v>
       </c>
-      <c r="O53" t="s">
-        <v>509</v>
-      </c>
-      <c r="P53"/>
-      <c r="Q53" t="n">
+      <c r="P53" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q53"/>
+      <c r="R53" t="n">
         <v>52.0</v>
       </c>
-      <c r="R53" t="s">
-        <v>563</v>
+      <c r="S53" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E54" t="n">
-        <v>54.44432468961309</v>
+        <v>657008.0000000019</v>
       </c>
       <c r="F54" t="n">
-        <v>-126.57865444178852</v>
+        <v>6035658.99999999</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J54" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K54" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54"/>
+        <v>59</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M54"/>
       <c r="N54"/>
-      <c r="O54" t="s">
-        <v>510</v>
-      </c>
-      <c r="P54"/>
-      <c r="Q54" t="n">
+      <c r="O54"/>
+      <c r="P54" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q54"/>
+      <c r="R54" t="n">
         <v>53.0</v>
       </c>
-      <c r="R54" t="s">
-        <v>564</v>
+      <c r="S54" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E55" t="n">
-        <v>54.47333435915812</v>
+        <v>680641.0000000017</v>
       </c>
       <c r="F55" t="n">
-        <v>-126.21213194445181</v>
+        <v>6039764.999999995</v>
       </c>
       <c r="G55" t="n">
         <v>48.8</v>
@@ -5173,100 +5362,106 @@
         <v>6690.64</v>
       </c>
       <c r="I55" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J55" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M55" t="n">
         <v>16424.0</v>
       </c>
-      <c r="M55"/>
-      <c r="N55" t="n">
+      <c r="N55"/>
+      <c r="O55" t="n">
         <v>1800355.0</v>
       </c>
-      <c r="O55" t="s">
-        <v>511</v>
-      </c>
-      <c r="P55"/>
-      <c r="Q55" t="n">
+      <c r="P55" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q55"/>
+      <c r="R55" t="n">
         <v>54.0</v>
       </c>
-      <c r="R55" t="s">
-        <v>565</v>
+      <c r="S55" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E56" t="n">
-        <v>54.48086940168329</v>
+        <v>639483.9999999995</v>
       </c>
       <c r="F56" t="n">
-        <v>-126.84703147052527</v>
+        <v>6039159.000000005</v>
       </c>
       <c r="G56" t="n">
         <v>1.5</v>
       </c>
       <c r="H56"/>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J56" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K56" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M56" t="n">
         <v>7752.0</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>123340.0</v>
       </c>
-      <c r="N56"/>
-      <c r="O56" t="s">
-        <v>58</v>
-      </c>
-      <c r="P56"/>
-      <c r="Q56" t="n">
+      <c r="O56"/>
+      <c r="P56" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q56"/>
+      <c r="R56" t="n">
         <v>55.0</v>
       </c>
-      <c r="R56" t="s">
-        <v>566</v>
+      <c r="S56" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E57" t="n">
-        <v>54.483102758525206</v>
+        <v>639723.0</v>
       </c>
       <c r="F57" t="n">
-        <v>-126.84322431538877</v>
+        <v>6039415.000000002</v>
       </c>
       <c r="G57" t="n">
         <v>2.6</v>
@@ -5275,50 +5470,53 @@
         <v>187.46</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J57" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K57" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M57" t="n">
         <v>9010.0</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>123346.0</v>
       </c>
-      <c r="N57"/>
-      <c r="O57" t="s">
-        <v>58</v>
-      </c>
-      <c r="P57"/>
-      <c r="Q57" t="n">
+      <c r="O57"/>
+      <c r="P57" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q57"/>
+      <c r="R57" t="n">
         <v>56.0</v>
       </c>
-      <c r="R57" t="s">
-        <v>567</v>
+      <c r="S57" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E58" t="n">
-        <v>54.50947259309293</v>
+        <v>654451.0000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>-126.61430508959303</v>
+        <v>6042827.000000001</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
@@ -5327,50 +5525,53 @@
         <v>390.67</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J58" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K58" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M58" t="n">
         <v>9051.0</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>3042.0</v>
       </c>
-      <c r="N58"/>
-      <c r="O58" t="s">
-        <v>58</v>
-      </c>
-      <c r="P58"/>
-      <c r="Q58" t="n">
+      <c r="O58"/>
+      <c r="P58" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58"/>
+      <c r="R58" t="n">
         <v>57.0</v>
       </c>
-      <c r="R58" t="s">
-        <v>568</v>
+      <c r="S58" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E59" t="n">
-        <v>54.55980431927334</v>
+        <v>660446.0000000005</v>
       </c>
       <c r="F59" t="n">
-        <v>-126.51863318168141</v>
+        <v>6048639.999999999</v>
       </c>
       <c r="G59" t="n">
         <v>1.8</v>
@@ -5379,50 +5580,53 @@
         <v>171.11</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J59" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K59" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M59" t="n">
         <v>8278.0</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>3070.0</v>
       </c>
-      <c r="N59"/>
-      <c r="O59" t="s">
-        <v>58</v>
-      </c>
-      <c r="P59"/>
-      <c r="Q59" t="n">
+      <c r="O59"/>
+      <c r="P59" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q59"/>
+      <c r="R59" t="n">
         <v>58.0</v>
       </c>
-      <c r="R59" t="s">
-        <v>569</v>
+      <c r="S59" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E60" t="n">
-        <v>54.56089404275623</v>
+        <v>656855.0000000005</v>
       </c>
       <c r="F60" t="n">
-        <v>-126.57411582106357</v>
+        <v>6048635.999999999</v>
       </c>
       <c r="G60" t="n">
         <v>15.7</v>
@@ -5431,52 +5635,55 @@
         <v>1069.82</v>
       </c>
       <c r="I60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K60" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M60" t="n">
         <v>8696.0</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>3091.0</v>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>1803532.0</v>
       </c>
-      <c r="O60" t="s">
-        <v>58</v>
-      </c>
-      <c r="P60"/>
-      <c r="Q60" t="n">
+      <c r="P60" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q60"/>
+      <c r="R60" t="n">
         <v>59.0</v>
       </c>
-      <c r="R60" t="s">
-        <v>570</v>
+      <c r="S60" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E61" t="n">
-        <v>54.56012929712151</v>
+        <v>656656.9999999991</v>
       </c>
       <c r="F61" t="n">
-        <v>-126.57722400447624</v>
+        <v>6048544.000000003</v>
       </c>
       <c r="G61" t="n">
         <v>17.3</v>
@@ -5485,50 +5692,53 @@
         <v>892.44</v>
       </c>
       <c r="I61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J61" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K61" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="L61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M61" t="n">
         <v>8348.0</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>3139.0</v>
       </c>
-      <c r="N61"/>
-      <c r="O61" t="s">
-        <v>58</v>
-      </c>
-      <c r="P61"/>
-      <c r="Q61" t="n">
+      <c r="O61"/>
+      <c r="P61" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61"/>
+      <c r="R61" t="n">
         <v>60.0</v>
       </c>
-      <c r="R61" t="s">
-        <v>571</v>
+      <c r="S61" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E62" t="n">
-        <v>54.56114434748262</v>
+        <v>642496.9999999995</v>
       </c>
       <c r="F62" t="n">
-        <v>-126.79619757728989</v>
+        <v>6048191.0</v>
       </c>
       <c r="G62" t="n">
         <v>28.3</v>
@@ -5537,52 +5747,55 @@
         <v>3767.2</v>
       </c>
       <c r="I62" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J62" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K62" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="L62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M62" t="n">
         <v>8614.0</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>123375.0</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>1800131.0</v>
       </c>
-      <c r="O62" t="s">
-        <v>58</v>
-      </c>
-      <c r="P62"/>
-      <c r="Q62" t="n">
+      <c r="P62" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q62"/>
+      <c r="R62" t="n">
         <v>61.0</v>
       </c>
-      <c r="R62" t="s">
-        <v>572</v>
+      <c r="S62" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E63" t="n">
-        <v>54.56143274217492</v>
+        <v>642970.9999999993</v>
       </c>
       <c r="F63" t="n">
-        <v>-126.78885007986638</v>
+        <v>6048237.999999996</v>
       </c>
       <c r="G63" t="n">
         <v>27.8</v>
@@ -5591,52 +5804,55 @@
         <v>3767.2</v>
       </c>
       <c r="I63" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J63" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K63" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="L63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M63" t="n">
         <v>8616.0</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>123380.0</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>1800544.0</v>
       </c>
-      <c r="O63" t="s">
-        <v>58</v>
-      </c>
-      <c r="P63"/>
-      <c r="Q63" t="n">
+      <c r="P63" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q63"/>
+      <c r="R63" t="n">
         <v>62.0</v>
       </c>
-      <c r="R63" t="s">
-        <v>573</v>
+      <c r="S63" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E64" t="n">
-        <v>54.561136448300374</v>
+        <v>642938.9999999994</v>
       </c>
       <c r="F64" t="n">
-        <v>-126.78936109836096</v>
+        <v>6048204.000000001</v>
       </c>
       <c r="G64" t="n">
         <v>27.8</v>
@@ -5645,100 +5861,106 @@
         <v>3767.2</v>
       </c>
       <c r="I64" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J64" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K64" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="L64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M64" t="n">
         <v>8615.0</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>123381.0</v>
       </c>
-      <c r="N64"/>
-      <c r="O64" t="s">
-        <v>58</v>
-      </c>
-      <c r="P64"/>
-      <c r="Q64" t="n">
+      <c r="O64"/>
+      <c r="P64" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q64"/>
+      <c r="R64" t="n">
         <v>63.0</v>
       </c>
-      <c r="R64" t="s">
-        <v>574</v>
+      <c r="S64" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E65" t="n">
-        <v>54.73690038306927</v>
+        <v>612079.0000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>-127.25918680442142</v>
+        <v>6066905.000000003</v>
       </c>
       <c r="G65" t="n">
         <v>3.2</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J65" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K65" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M65" t="n">
         <v>8603.0</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>123558.0</v>
       </c>
-      <c r="N65"/>
-      <c r="O65" t="s">
-        <v>58</v>
-      </c>
-      <c r="P65"/>
-      <c r="Q65" t="n">
+      <c r="O65"/>
+      <c r="P65" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q65"/>
+      <c r="R65" t="n">
         <v>64.0</v>
       </c>
-      <c r="R65" t="s">
-        <v>575</v>
+      <c r="S65" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E66" t="n">
-        <v>54.74300007221144</v>
+        <v>610617.0000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>-127.28163866712632</v>
+        <v>6067547.999999998</v>
       </c>
       <c r="G66" t="n">
         <v>1.1</v>
@@ -5747,50 +5969,53 @@
         <v>401.42</v>
       </c>
       <c r="I66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J66" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K66" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="L66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M66" t="n">
         <v>8942.0</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>123567.0</v>
       </c>
-      <c r="N66"/>
-      <c r="O66" t="s">
-        <v>58</v>
-      </c>
-      <c r="P66"/>
-      <c r="Q66" t="n">
+      <c r="O66"/>
+      <c r="P66" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q66"/>
+      <c r="R66" t="n">
         <v>65.0</v>
       </c>
-      <c r="R66" t="s">
-        <v>576</v>
+      <c r="S66" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E67" t="n">
-        <v>54.74373385588602</v>
+        <v>607525.0000000006</v>
       </c>
       <c r="F67" t="n">
-        <v>-127.32964522135866</v>
+        <v>6067555.000000001</v>
       </c>
       <c r="G67" t="n">
         <v>2.0</v>
@@ -5799,50 +6024,53 @@
         <v>762.65</v>
       </c>
       <c r="I67" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J67" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K67" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="L67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M67" t="n">
         <v>8712.0</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>123570.0</v>
       </c>
-      <c r="N67"/>
-      <c r="O67" t="s">
-        <v>58</v>
-      </c>
-      <c r="P67"/>
-      <c r="Q67" t="n">
+      <c r="O67"/>
+      <c r="P67" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q67"/>
+      <c r="R67" t="n">
         <v>66.0</v>
       </c>
-      <c r="R67" t="s">
-        <v>577</v>
+      <c r="S67" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E68" t="n">
-        <v>54.74209766031624</v>
+        <v>607614.9999999997</v>
       </c>
       <c r="F68" t="n">
-        <v>-127.32831437748408</v>
+        <v>6067375.000000004</v>
       </c>
       <c r="G68" t="n">
         <v>2.2</v>
@@ -5851,50 +6079,53 @@
         <v>762.65</v>
       </c>
       <c r="I68" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J68" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K68" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M68" t="n">
         <v>8711.0</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>123575.0</v>
       </c>
-      <c r="N68"/>
-      <c r="O68" t="s">
-        <v>58</v>
-      </c>
-      <c r="P68"/>
-      <c r="Q68" t="n">
+      <c r="O68"/>
+      <c r="P68" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q68"/>
+      <c r="R68" t="n">
         <v>67.0</v>
       </c>
-      <c r="R68" t="s">
-        <v>578</v>
+      <c r="S68" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E69" t="n">
-        <v>54.799284532204</v>
+        <v>631055.9999999992</v>
       </c>
       <c r="F69" t="n">
-        <v>-126.96126244180627</v>
+        <v>6074361.999999999</v>
       </c>
       <c r="G69" t="n">
         <v>14.4</v>
@@ -5903,50 +6134,53 @@
         <v>1319.41</v>
       </c>
       <c r="I69" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="J69" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K69" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M69" t="n">
         <v>9068.0</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>58139.0</v>
       </c>
-      <c r="N69"/>
-      <c r="O69" t="s">
-        <v>58</v>
-      </c>
-      <c r="P69"/>
-      <c r="Q69" t="n">
+      <c r="O69"/>
+      <c r="P69" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q69"/>
+      <c r="R69" t="n">
         <v>68.0</v>
       </c>
-      <c r="R69" t="s">
-        <v>579</v>
+      <c r="S69" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E70" t="n">
-        <v>54.64678470330528</v>
+        <v>633419.0000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>-126.93227778244196</v>
+        <v>6057451.000000002</v>
       </c>
       <c r="G70" t="n">
         <v>32.9</v>
@@ -5955,50 +6189,53 @@
         <v>2761.38</v>
       </c>
       <c r="I70" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="J70" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K70" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M70" t="n">
         <v>8630.0</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>58161.0</v>
       </c>
-      <c r="N70"/>
-      <c r="O70" t="s">
-        <v>58</v>
-      </c>
-      <c r="P70"/>
-      <c r="Q70" t="n">
+      <c r="O70"/>
+      <c r="P70" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q70"/>
+      <c r="R70" t="n">
         <v>69.0</v>
       </c>
-      <c r="R70" t="s">
-        <v>580</v>
+      <c r="S70" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E71" t="n">
-        <v>54.79237066263117</v>
+        <v>616947.9999999997</v>
       </c>
       <c r="F71" t="n">
-        <v>-127.18106650500323</v>
+        <v>6073203.999999999</v>
       </c>
       <c r="G71" t="n">
         <v>36.2</v>
@@ -6007,52 +6244,55 @@
         <v>5474.24</v>
       </c>
       <c r="I71" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J71" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K71" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M71" t="n">
         <v>8402.0</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>58242.0</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>1802965.0</v>
       </c>
-      <c r="O71" t="s">
-        <v>58</v>
-      </c>
-      <c r="P71"/>
-      <c r="Q71" t="n">
+      <c r="P71" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q71"/>
+      <c r="R71" t="n">
         <v>70.0</v>
       </c>
-      <c r="R71" t="s">
-        <v>581</v>
+      <c r="S71" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E72" t="n">
-        <v>54.78683604892637</v>
+        <v>616530.0000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>-127.18781613531272</v>
+        <v>6072577.0</v>
       </c>
       <c r="G72" t="n">
         <v>2.1</v>
@@ -6061,52 +6301,55 @@
         <v>864.62</v>
       </c>
       <c r="I72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J72" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K72" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M72" t="n">
         <v>8766.0</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>58272.0</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>1802937.0</v>
       </c>
-      <c r="O72" t="s">
-        <v>58</v>
-      </c>
-      <c r="P72"/>
-      <c r="Q72" t="n">
+      <c r="P72" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q72"/>
+      <c r="R72" t="n">
         <v>71.0</v>
       </c>
-      <c r="R72" t="s">
-        <v>582</v>
+      <c r="S72" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E73" t="n">
-        <v>54.78753895745048</v>
+        <v>616403.9999999995</v>
       </c>
       <c r="F73" t="n">
-        <v>-127.18974440030337</v>
+        <v>6072652.0</v>
       </c>
       <c r="G73" t="n">
         <v>1.1</v>
@@ -6115,50 +6358,53 @@
         <v>744.17</v>
       </c>
       <c r="I73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J73" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K73" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M73" t="n">
         <v>8767.0</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>58290.0</v>
       </c>
-      <c r="N73"/>
-      <c r="O73" t="s">
-        <v>58</v>
-      </c>
-      <c r="P73"/>
-      <c r="Q73" t="n">
+      <c r="O73"/>
+      <c r="P73" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q73"/>
+      <c r="R73" t="n">
         <v>72.0</v>
       </c>
-      <c r="R73" t="s">
-        <v>583</v>
+      <c r="S73" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E74" t="n">
-        <v>54.78782494949228</v>
+        <v>616564.9999999993</v>
       </c>
       <c r="F74" t="n">
-        <v>-127.18722753435785</v>
+        <v>6072687.999999998</v>
       </c>
       <c r="G74" t="n">
         <v>2.2</v>
@@ -6167,52 +6413,55 @@
         <v>864.62</v>
       </c>
       <c r="I74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J74" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K74" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="L74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M74" t="n">
         <v>8765.0</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>58291.0</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>1802942.0</v>
       </c>
-      <c r="O74" t="s">
-        <v>58</v>
-      </c>
-      <c r="P74"/>
-      <c r="Q74" t="n">
+      <c r="P74" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q74"/>
+      <c r="R74" t="n">
         <v>73.0</v>
       </c>
-      <c r="R74" t="s">
-        <v>584</v>
+      <c r="S74" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E75" t="n">
-        <v>54.64984050481313</v>
+        <v>638345.0000000002</v>
       </c>
       <c r="F75" t="n">
-        <v>-126.85576236566291</v>
+        <v>6057939.000000001</v>
       </c>
       <c r="G75" t="n">
         <v>15.0</v>
@@ -6221,52 +6470,55 @@
         <v>1154.96</v>
       </c>
       <c r="I75" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J75" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K75" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M75" t="n">
         <v>9043.0</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>123416.0</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>1802805.0</v>
       </c>
-      <c r="O75" t="s">
-        <v>58</v>
-      </c>
-      <c r="P75"/>
-      <c r="Q75" t="n">
+      <c r="P75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q75"/>
+      <c r="R75" t="n">
         <v>74.0</v>
       </c>
-      <c r="R75" t="s">
-        <v>585</v>
+      <c r="S75" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E76" t="n">
-        <v>54.65621391596518</v>
+        <v>638616.9999999994</v>
       </c>
       <c r="F76" t="n">
-        <v>-126.85120955549766</v>
+        <v>6058656.999999998</v>
       </c>
       <c r="G76" t="n">
         <v>14.1</v>
@@ -6275,50 +6527,53 @@
         <v>1154.96</v>
       </c>
       <c r="I76" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J76" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K76" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="L76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M76" t="n">
         <v>9044.0</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>123418.0</v>
       </c>
-      <c r="N76"/>
-      <c r="O76" t="s">
-        <v>58</v>
-      </c>
-      <c r="P76"/>
-      <c r="Q76" t="n">
+      <c r="O76"/>
+      <c r="P76" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q76"/>
+      <c r="R76" t="n">
         <v>75.0</v>
       </c>
-      <c r="R76" t="s">
-        <v>586</v>
+      <c r="S76" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E77" t="n">
-        <v>54.63890866183052</v>
+        <v>636970.9999999998</v>
       </c>
       <c r="F77" t="n">
-        <v>-126.87763130453803</v>
+        <v>6056679.999999999</v>
       </c>
       <c r="G77" t="n">
         <v>62.7</v>
@@ -6327,50 +6582,53 @@
         <v>4381.5</v>
       </c>
       <c r="I77" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="J77" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K77" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M77" t="n">
         <v>9112.0</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>123426.0</v>
       </c>
-      <c r="N77"/>
-      <c r="O77" t="s">
-        <v>58</v>
-      </c>
-      <c r="P77"/>
-      <c r="Q77" t="n">
+      <c r="O77"/>
+      <c r="P77" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q77"/>
+      <c r="R77" t="n">
         <v>76.0</v>
       </c>
-      <c r="R77" t="s">
-        <v>587</v>
+      <c r="S77" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E78" t="n">
-        <v>54.66285216642645</v>
+        <v>637528.9999999993</v>
       </c>
       <c r="F78" t="n">
-        <v>-126.86773018062539</v>
+        <v>6059363.000000003</v>
       </c>
       <c r="G78" t="n">
         <v>9.2</v>
@@ -6379,50 +6637,53 @@
         <v>925.02</v>
       </c>
       <c r="I78" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J78" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K78" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M78" t="n">
         <v>8104.0</v>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>123429.0</v>
       </c>
-      <c r="N78"/>
-      <c r="O78" t="s">
-        <v>58</v>
-      </c>
-      <c r="P78"/>
-      <c r="Q78" t="n">
+      <c r="O78"/>
+      <c r="P78" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q78"/>
+      <c r="R78" t="n">
         <v>77.0</v>
       </c>
-      <c r="R78" t="s">
-        <v>588</v>
+      <c r="S78" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E79" t="n">
-        <v>54.712165390625536</v>
+        <v>627569.9999999992</v>
       </c>
       <c r="F79" t="n">
-        <v>-127.0197569237174</v>
+        <v>6064561.999999999</v>
       </c>
       <c r="G79" t="n">
         <v>1.5</v>
@@ -6431,50 +6692,53 @@
         <v>408.2</v>
       </c>
       <c r="I79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J79" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K79" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M79" t="n">
         <v>8527.0</v>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>123463.0</v>
       </c>
-      <c r="N79"/>
-      <c r="O79" t="s">
-        <v>58</v>
-      </c>
-      <c r="P79"/>
-      <c r="Q79" t="n">
+      <c r="O79"/>
+      <c r="P79" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q79"/>
+      <c r="R79" t="n">
         <v>78.0</v>
       </c>
-      <c r="R79" t="s">
-        <v>589</v>
+      <c r="S79" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E80" t="n">
-        <v>54.706157380156114</v>
+        <v>619893.9999999994</v>
       </c>
       <c r="F80" t="n">
-        <v>-127.1391994461618</v>
+        <v>6063682.999999998</v>
       </c>
       <c r="G80" t="n">
         <v>4.5</v>
@@ -6483,50 +6747,53 @@
         <v>1454.64</v>
       </c>
       <c r="I80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J80" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K80" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="L80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M80" t="n">
         <v>9154.0</v>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>123481.0</v>
       </c>
-      <c r="N80"/>
-      <c r="O80" t="s">
-        <v>58</v>
-      </c>
-      <c r="P80"/>
-      <c r="Q80" t="n">
+      <c r="O80"/>
+      <c r="P80" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q80"/>
+      <c r="R80" t="n">
         <v>79.0</v>
       </c>
-      <c r="R80" t="s">
-        <v>590</v>
+      <c r="S80" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E81" t="n">
-        <v>54.710818729691574</v>
+        <v>619176.9999999995</v>
       </c>
       <c r="F81" t="n">
-        <v>-127.1501166380418</v>
+        <v>6064183.000000001</v>
       </c>
       <c r="G81" t="n">
         <v>1.0</v>
@@ -6535,50 +6802,53 @@
         <v>533.64</v>
       </c>
       <c r="I81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J81" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K81" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M81" t="n">
         <v>8596.0</v>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>123482.0</v>
       </c>
-      <c r="N81"/>
-      <c r="O81" t="s">
-        <v>58</v>
-      </c>
-      <c r="P81"/>
-      <c r="Q81" t="n">
+      <c r="O81"/>
+      <c r="P81" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q81"/>
+      <c r="R81" t="n">
         <v>80.0</v>
       </c>
-      <c r="R81" t="s">
-        <v>591</v>
+      <c r="S81" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E82" t="n">
-        <v>54.709336647971405</v>
+        <v>619707.0000000006</v>
       </c>
       <c r="F82" t="n">
-        <v>-127.1419567212578</v>
+        <v>6064032.0</v>
       </c>
       <c r="G82" t="n">
         <v>4.9</v>
@@ -6587,50 +6857,53 @@
         <v>1454.64</v>
       </c>
       <c r="I82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J82" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K82" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M82" t="n">
         <v>9153.0</v>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>123485.0</v>
       </c>
-      <c r="N82"/>
-      <c r="O82" t="s">
-        <v>58</v>
-      </c>
-      <c r="P82"/>
-      <c r="Q82" t="n">
+      <c r="O82"/>
+      <c r="P82" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q82"/>
+      <c r="R82" t="n">
         <v>81.0</v>
       </c>
-      <c r="R82" t="s">
-        <v>592</v>
+      <c r="S82" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E83" t="n">
-        <v>54.709889734024124</v>
+        <v>619723.0000000007</v>
       </c>
       <c r="F83" t="n">
-        <v>-127.14168305033789</v>
+        <v>6064094.000000002</v>
       </c>
       <c r="G83" t="n">
         <v>9.3</v>
@@ -6639,50 +6912,53 @@
         <v>2698.77</v>
       </c>
       <c r="I83" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J83" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K83" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M83" t="n">
         <v>9152.0</v>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>123486.0</v>
       </c>
-      <c r="N83"/>
-      <c r="O83" t="s">
-        <v>58</v>
-      </c>
-      <c r="P83"/>
-      <c r="Q83" t="n">
+      <c r="O83"/>
+      <c r="P83" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q83"/>
+      <c r="R83" t="n">
         <v>82.0</v>
       </c>
-      <c r="R83" t="s">
-        <v>593</v>
+      <c r="S83" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D84" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E84" t="n">
-        <v>54.74557312552798</v>
+        <v>619996.9999999994</v>
       </c>
       <c r="F84" t="n">
-        <v>-127.1357919558504</v>
+        <v>6068073.999999999</v>
       </c>
       <c r="G84" t="n">
         <v>7.4</v>
@@ -6691,50 +6967,53 @@
         <v>1384.56</v>
       </c>
       <c r="I84" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J84" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K84" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M84" t="n">
         <v>8663.0</v>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>123488.0</v>
       </c>
-      <c r="N84"/>
-      <c r="O84" t="s">
-        <v>58</v>
-      </c>
-      <c r="P84"/>
-      <c r="Q84" t="n">
+      <c r="O84"/>
+      <c r="P84" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q84"/>
+      <c r="R84" t="n">
         <v>83.0</v>
       </c>
-      <c r="R84" t="s">
-        <v>594</v>
+      <c r="S84" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D85" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E85" t="n">
-        <v>54.74753129889462</v>
+        <v>619959.0000000002</v>
       </c>
       <c r="F85" t="n">
-        <v>-127.13629242978283</v>
+        <v>6068291.0</v>
       </c>
       <c r="G85" t="n">
         <v>7.7</v>
@@ -6743,50 +7022,53 @@
         <v>1384.56</v>
       </c>
       <c r="I85" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J85" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K85" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M85" t="n">
         <v>8662.0</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>123491.0</v>
       </c>
-      <c r="N85"/>
-      <c r="O85" t="s">
-        <v>58</v>
-      </c>
-      <c r="P85"/>
-      <c r="Q85" t="n">
+      <c r="O85"/>
+      <c r="P85" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q85"/>
+      <c r="R85" t="n">
         <v>84.0</v>
       </c>
-      <c r="R85" t="s">
-        <v>595</v>
+      <c r="S85" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E86" t="n">
-        <v>54.74858864114025</v>
+        <v>619931.9999999995</v>
       </c>
       <c r="F86" t="n">
-        <v>-127.13666339720588</v>
+        <v>6068407.999999996</v>
       </c>
       <c r="G86" t="n">
         <v>7.8</v>
@@ -6795,50 +7077,53 @@
         <v>1384.56</v>
       </c>
       <c r="I86" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J86" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K86" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M86" t="n">
         <v>8661.0</v>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>123492.0</v>
       </c>
-      <c r="N86"/>
-      <c r="O86" t="s">
-        <v>58</v>
-      </c>
-      <c r="P86"/>
-      <c r="Q86" t="n">
+      <c r="O86"/>
+      <c r="P86" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q86"/>
+      <c r="R86" t="n">
         <v>85.0</v>
       </c>
-      <c r="R86" t="s">
-        <v>596</v>
+      <c r="S86" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E87" t="n">
-        <v>54.75830524685106</v>
+        <v>620052.9999999997</v>
       </c>
       <c r="F87" t="n">
-        <v>-127.13433640290974</v>
+        <v>6069493.000000001</v>
       </c>
       <c r="G87" t="n">
         <v>9.7</v>
@@ -6847,50 +7132,53 @@
         <v>1954.9</v>
       </c>
       <c r="I87" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J87" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K87" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M87" t="n">
         <v>8659.0</v>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>123495.0</v>
       </c>
-      <c r="N87"/>
-      <c r="O87" t="s">
-        <v>58</v>
-      </c>
-      <c r="P87"/>
-      <c r="Q87" t="n">
+      <c r="O87"/>
+      <c r="P87" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q87"/>
+      <c r="R87" t="n">
         <v>86.0</v>
       </c>
-      <c r="R87" t="s">
-        <v>597</v>
+      <c r="S87" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E88" t="n">
-        <v>54.740490236478145</v>
+        <v>619238.0000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>-127.14781675244997</v>
+        <v>6067487.999999998</v>
       </c>
       <c r="G88" t="n">
         <v>6.2</v>
@@ -6899,50 +7187,53 @@
         <v>1384.56</v>
       </c>
       <c r="I88" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="J88" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K88" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M88" t="n">
         <v>8664.0</v>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>123501.0</v>
       </c>
-      <c r="N88"/>
-      <c r="O88" t="s">
-        <v>58</v>
-      </c>
-      <c r="P88"/>
-      <c r="Q88" t="n">
+      <c r="O88"/>
+      <c r="P88" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q88"/>
+      <c r="R88" t="n">
         <v>87.0</v>
       </c>
-      <c r="R88" t="s">
-        <v>598</v>
+      <c r="S88" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E89" t="n">
-        <v>54.64663043325637</v>
+        <v>624609.9999999993</v>
       </c>
       <c r="F89" t="n">
-        <v>-127.06882428916256</v>
+        <v>6057183.0</v>
       </c>
       <c r="G89" t="n">
         <v>19.5</v>
@@ -6951,50 +7242,53 @@
         <v>1734.21</v>
       </c>
       <c r="I89" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="J89" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K89" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M89" t="n">
         <v>8995.0</v>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>123511.0</v>
       </c>
-      <c r="N89"/>
-      <c r="O89" t="s">
-        <v>58</v>
-      </c>
-      <c r="P89"/>
-      <c r="Q89" t="n">
+      <c r="O89"/>
+      <c r="P89" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q89"/>
+      <c r="R89" t="n">
         <v>88.0</v>
       </c>
-      <c r="R89" t="s">
-        <v>599</v>
+      <c r="S89" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E90" t="n">
-        <v>54.619270895418275</v>
+        <v>632069.9999999992</v>
       </c>
       <c r="F90" t="n">
-        <v>-126.95456923742954</v>
+        <v>6054348.0</v>
       </c>
       <c r="G90" t="n">
         <v>8.4</v>
@@ -7003,50 +7297,53 @@
         <v>723.84</v>
       </c>
       <c r="I90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J90" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="K90" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="L90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M90" t="n">
         <v>8906.0</v>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>124502.0</v>
       </c>
-      <c r="N90"/>
-      <c r="O90" t="s">
-        <v>58</v>
-      </c>
-      <c r="P90"/>
-      <c r="Q90" t="n">
+      <c r="O90"/>
+      <c r="P90" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q90"/>
+      <c r="R90" t="n">
         <v>89.0</v>
       </c>
-      <c r="R90" t="s">
-        <v>600</v>
+      <c r="S90" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D91" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E91" t="n">
-        <v>54.61402195862791</v>
+        <v>631913.0000000002</v>
       </c>
       <c r="F91" t="n">
-        <v>-126.95726413515128</v>
+        <v>6053759.000000002</v>
       </c>
       <c r="G91" t="n">
         <v>7.6</v>
@@ -7055,50 +7352,53 @@
         <v>723.84</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J91" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K91" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M91" t="n">
         <v>8907.0</v>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>124505.0</v>
       </c>
-      <c r="N91"/>
-      <c r="O91" t="s">
-        <v>58</v>
-      </c>
-      <c r="P91"/>
-      <c r="Q91" t="n">
+      <c r="O91"/>
+      <c r="P91" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q91"/>
+      <c r="R91" t="n">
         <v>90.0</v>
       </c>
-      <c r="R91" t="s">
-        <v>601</v>
+      <c r="S91" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E92" t="n">
-        <v>54.608899986412325</v>
+        <v>641865.9999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>-126.8033891510256</v>
+        <v>6053489.0</v>
       </c>
       <c r="G92" t="n">
         <v>2.0</v>
@@ -7107,52 +7407,55 @@
         <v>247.42</v>
       </c>
       <c r="I92" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J92" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K92" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M92" t="n">
         <v>8242.0</v>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>195292.0</v>
       </c>
-      <c r="N92" t="n">
+      <c r="O92" t="n">
         <v>1801369.0</v>
       </c>
-      <c r="O92" t="s">
-        <v>58</v>
-      </c>
-      <c r="P92"/>
-      <c r="Q92" t="n">
+      <c r="P92" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q92"/>
+      <c r="R92" t="n">
         <v>91.0</v>
       </c>
-      <c r="R92" t="s">
-        <v>602</v>
+      <c r="S92" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D93" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E93" t="n">
-        <v>54.61998039514411</v>
+        <v>620053.0</v>
       </c>
       <c r="F93" t="n">
-        <v>-127.14067243932108</v>
+        <v>6054092.999999999</v>
       </c>
       <c r="G93" t="n">
         <v>8.6</v>
@@ -7161,50 +7464,53 @@
         <v>914.39</v>
       </c>
       <c r="I93" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="J93" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K93" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="L93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M93" t="n">
         <v>8683.0</v>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>195559.0</v>
       </c>
-      <c r="N93"/>
-      <c r="O93" t="s">
-        <v>58</v>
-      </c>
-      <c r="P93"/>
-      <c r="Q93" t="n">
+      <c r="O93"/>
+      <c r="P93" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q93"/>
+      <c r="R93" t="n">
         <v>92.0</v>
       </c>
-      <c r="R93" t="s">
-        <v>603</v>
+      <c r="S93" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D94" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E94" t="n">
-        <v>54.626314334137085</v>
+        <v>668503.9999999991</v>
       </c>
       <c r="F94" t="n">
-        <v>-126.38973279939144</v>
+        <v>6056340.000000003</v>
       </c>
       <c r="G94" t="n">
         <v>4.6</v>
@@ -7213,50 +7519,53 @@
         <v>151.12</v>
       </c>
       <c r="I94" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J94" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K94" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M94" t="n">
         <v>8670.0</v>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>3065.0</v>
       </c>
-      <c r="N94"/>
-      <c r="O94" t="s">
-        <v>58</v>
-      </c>
-      <c r="P94"/>
-      <c r="Q94" t="n">
+      <c r="O94"/>
+      <c r="P94" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q94"/>
+      <c r="R94" t="n">
         <v>93.0</v>
       </c>
-      <c r="R94" t="s">
-        <v>604</v>
+      <c r="S94" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D95" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E95" t="n">
-        <v>54.900328762326936</v>
+        <v>610300.9999999998</v>
       </c>
       <c r="F95" t="n">
-        <v>-127.27987284059083</v>
+        <v>6085054.999999999</v>
       </c>
       <c r="G95" t="n">
         <v>7.5</v>
@@ -7265,50 +7574,53 @@
         <v>908.23</v>
       </c>
       <c r="I95" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J95" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K95" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M95" t="n">
         <v>8120.0</v>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>57925.0</v>
       </c>
-      <c r="N95"/>
-      <c r="O95" t="s">
-        <v>58</v>
-      </c>
-      <c r="P95"/>
-      <c r="Q95" t="n">
+      <c r="O95"/>
+      <c r="P95" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q95"/>
+      <c r="R95" t="n">
         <v>94.0</v>
       </c>
-      <c r="R95" t="s">
-        <v>605</v>
+      <c r="S95" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D96" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E96" t="n">
-        <v>54.946228057145376</v>
+        <v>601282.9999999994</v>
       </c>
       <c r="F96" t="n">
-        <v>-127.41872036245786</v>
+        <v>6089952.0</v>
       </c>
       <c r="G96" t="n">
         <v>3.0</v>
@@ -7317,50 +7629,53 @@
         <v>1484.78</v>
       </c>
       <c r="I96" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J96" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K96" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M96" t="n">
         <v>8827.0</v>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>57958.0</v>
       </c>
-      <c r="N96"/>
-      <c r="O96" t="s">
-        <v>58</v>
-      </c>
-      <c r="P96"/>
-      <c r="Q96" t="n">
+      <c r="O96"/>
+      <c r="P96" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q96"/>
+      <c r="R96" t="n">
         <v>95.0</v>
       </c>
-      <c r="R96" t="s">
-        <v>606</v>
+      <c r="S96" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D97" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E97" t="n">
-        <v>54.92302585412259</v>
+        <v>608545.9999999995</v>
       </c>
       <c r="F97" t="n">
-        <v>-127.30629155392175</v>
+        <v>6087538.999999996</v>
       </c>
       <c r="G97" t="n">
         <v>14.3</v>
@@ -7369,50 +7684,53 @@
         <v>792.3</v>
       </c>
       <c r="I97" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J97" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K97" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M97" t="n">
         <v>8474.0</v>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>58043.0</v>
       </c>
-      <c r="N97"/>
-      <c r="O97" t="s">
-        <v>58</v>
-      </c>
-      <c r="P97"/>
-      <c r="Q97" t="n">
+      <c r="O97"/>
+      <c r="P97" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q97"/>
+      <c r="R97" t="n">
         <v>96.0</v>
       </c>
-      <c r="R97" t="s">
-        <v>607</v>
+      <c r="S97" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D98" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E98" t="n">
-        <v>54.970680518390466</v>
+        <v>609726.0000000002</v>
       </c>
       <c r="F98" t="n">
-        <v>-127.28585044584425</v>
+        <v>6092873.000000006</v>
       </c>
       <c r="G98" t="n">
         <v>10.7</v>
@@ -7421,50 +7739,53 @@
         <v>3328.9</v>
       </c>
       <c r="I98" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J98" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K98" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="L98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M98" t="n">
         <v>9064.0</v>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>58067.0</v>
       </c>
-      <c r="N98"/>
-      <c r="O98" t="s">
-        <v>58</v>
-      </c>
-      <c r="P98"/>
-      <c r="Q98" t="n">
+      <c r="O98"/>
+      <c r="P98" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q98"/>
+      <c r="R98" t="n">
         <v>97.0</v>
       </c>
-      <c r="R98" t="s">
-        <v>608</v>
+      <c r="S98" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D99" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E99" t="n">
-        <v>54.976812083816526</v>
+        <v>609659.9999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>-127.28662052134463</v>
+        <v>6093554.000000003</v>
       </c>
       <c r="G99" t="n">
         <v>14.2</v>
@@ -7473,50 +7794,53 @@
         <v>2202.5</v>
       </c>
       <c r="I99" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J99" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K99" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M99" t="n">
         <v>8469.0</v>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>58068.0</v>
       </c>
-      <c r="N99"/>
-      <c r="O99" t="s">
-        <v>58</v>
-      </c>
-      <c r="P99"/>
-      <c r="Q99" t="n">
+      <c r="O99"/>
+      <c r="P99" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q99"/>
+      <c r="R99" t="n">
         <v>98.0</v>
       </c>
-      <c r="R99" t="s">
-        <v>609</v>
+      <c r="S99" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D100" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E100" t="n">
-        <v>54.80997945949831</v>
+        <v>615381.0000000007</v>
       </c>
       <c r="F100" t="n">
-        <v>-127.20466074677552</v>
+        <v>6075124.000000002</v>
       </c>
       <c r="G100" t="n">
         <v>4.6</v>
@@ -7525,50 +7849,53 @@
         <v>1307.48</v>
       </c>
       <c r="I100" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J100" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K100" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="L100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M100" t="n">
         <v>8730.0</v>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>58245.0</v>
       </c>
-      <c r="N100"/>
-      <c r="O100" t="s">
-        <v>58</v>
-      </c>
-      <c r="P100"/>
-      <c r="Q100" t="n">
+      <c r="O100"/>
+      <c r="P100" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q100"/>
+      <c r="R100" t="n">
         <v>99.0</v>
       </c>
-      <c r="R100" t="s">
-        <v>610</v>
+      <c r="S100" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D101" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E101" t="n">
-        <v>54.829322726429254</v>
+        <v>613908.9999999995</v>
       </c>
       <c r="F101" t="n">
-        <v>-127.22672021799467</v>
+        <v>6077239.999999998</v>
       </c>
       <c r="G101" t="n">
         <v>3.2</v>
@@ -7577,50 +7904,53 @@
         <v>187.81</v>
       </c>
       <c r="I101" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J101" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K101" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="L101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M101" t="n">
         <v>8958.0</v>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>58253.0</v>
       </c>
-      <c r="N101"/>
-      <c r="O101" t="s">
-        <v>58</v>
-      </c>
-      <c r="P101"/>
-      <c r="Q101" t="n">
+      <c r="O101"/>
+      <c r="P101" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q101"/>
+      <c r="R101" t="n">
         <v>100.0</v>
       </c>
-      <c r="R101" t="s">
-        <v>611</v>
+      <c r="S101" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D102" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E102" t="n">
-        <v>54.81085159766157</v>
+        <v>614279.0000000002</v>
       </c>
       <c r="F102" t="n">
-        <v>-127.22177151430908</v>
+        <v>6075192.999999997</v>
       </c>
       <c r="G102" t="n">
         <v>1.1</v>
@@ -7629,50 +7959,53 @@
         <v>681.14</v>
       </c>
       <c r="I102" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="J102" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K102" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="L102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M102" t="n">
         <v>8732.0</v>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>58258.0</v>
       </c>
-      <c r="N102"/>
-      <c r="O102" t="s">
-        <v>58</v>
-      </c>
-      <c r="P102"/>
-      <c r="Q102" t="n">
+      <c r="O102"/>
+      <c r="P102" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q102"/>
+      <c r="R102" t="n">
         <v>101.0</v>
       </c>
-      <c r="R102" t="s">
-        <v>612</v>
+      <c r="S102" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E103" t="n">
-        <v>54.81243505709337</v>
+        <v>614504.0000000002</v>
       </c>
       <c r="F103" t="n">
-        <v>-127.21820034161013</v>
+        <v>6075374.999999999</v>
       </c>
       <c r="G103" t="n">
         <v>1.4</v>
@@ -7681,52 +8014,55 @@
         <v>681.14</v>
       </c>
       <c r="I103" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="J103" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K103" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M103" t="n">
         <v>8731.0</v>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>58263.0</v>
       </c>
-      <c r="N103" t="n">
+      <c r="O103" t="n">
         <v>1801500.0</v>
       </c>
-      <c r="O103" t="s">
-        <v>58</v>
-      </c>
-      <c r="P103"/>
-      <c r="Q103" t="n">
+      <c r="P103" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q103"/>
+      <c r="R103" t="n">
         <v>102.0</v>
       </c>
-      <c r="R103" t="s">
-        <v>613</v>
+      <c r="S103" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D104" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E104" t="n">
-        <v>54.94553163542207</v>
+        <v>612101.0000000008</v>
       </c>
       <c r="F104" t="n">
-        <v>-127.24983773768189</v>
+        <v>6090131.999999997</v>
       </c>
       <c r="G104" t="n">
         <v>5.2</v>
@@ -7735,50 +8071,53 @@
         <v>1111.19</v>
       </c>
       <c r="I104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J104" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K104" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="L104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M104" t="n">
         <v>8784.0</v>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>123743.0</v>
       </c>
-      <c r="N104"/>
-      <c r="O104" t="s">
-        <v>58</v>
-      </c>
-      <c r="P104"/>
-      <c r="Q104" t="n">
+      <c r="O104"/>
+      <c r="P104" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q104"/>
+      <c r="R104" t="n">
         <v>103.0</v>
       </c>
-      <c r="R104" t="s">
-        <v>614</v>
+      <c r="S104" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C105" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E105" t="n">
-        <v>54.8131032339059</v>
+        <v>629234.0000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>-126.98892345428642</v>
+        <v>6075848.0</v>
       </c>
       <c r="G105" t="n">
         <v>4.9</v>
@@ -7787,50 +8126,53 @@
         <v>893.29</v>
       </c>
       <c r="I105" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J105" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K105" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M105" t="n">
         <v>8900.0</v>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>57834.0</v>
       </c>
-      <c r="N105"/>
-      <c r="O105" t="s">
-        <v>58</v>
-      </c>
-      <c r="P105"/>
-      <c r="Q105" t="n">
+      <c r="O105"/>
+      <c r="P105" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q105"/>
+      <c r="R105" t="n">
         <v>104.0</v>
       </c>
-      <c r="R105" t="s">
-        <v>615</v>
+      <c r="S105" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D106" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E106" t="n">
-        <v>54.811183926836954</v>
+        <v>629363.0000000005</v>
       </c>
       <c r="F106" t="n">
-        <v>-126.98701120350339</v>
+        <v>6075637.999999998</v>
       </c>
       <c r="G106" t="n">
         <v>8.7</v>
@@ -7839,50 +8181,53 @@
         <v>991.86</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J106" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="K106" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="L106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M106" t="n">
         <v>7949.0</v>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>57835.0</v>
       </c>
-      <c r="N106"/>
-      <c r="O106" t="s">
-        <v>58</v>
-      </c>
-      <c r="P106"/>
-      <c r="Q106" t="n">
+      <c r="O106"/>
+      <c r="P106" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q106"/>
+      <c r="R106" t="n">
         <v>105.0</v>
       </c>
-      <c r="R106" t="s">
-        <v>616</v>
+      <c r="S106" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C107" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D107" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E107" t="n">
-        <v>54.814804152066095</v>
+        <v>629324.9999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>-126.98742257733151</v>
+        <v>6076039.999999999</v>
       </c>
       <c r="G107" t="n">
         <v>4.6</v>
@@ -7891,52 +8236,55 @@
         <v>893.29</v>
       </c>
       <c r="I107" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J107" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K107" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M107" t="n">
         <v>8901.0</v>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>57836.0</v>
       </c>
-      <c r="N107" t="n">
+      <c r="O107" t="n">
         <v>1803271.0</v>
       </c>
-      <c r="O107" t="s">
-        <v>58</v>
-      </c>
-      <c r="P107"/>
-      <c r="Q107" t="n">
+      <c r="P107" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q107"/>
+      <c r="R107" t="n">
         <v>106.0</v>
       </c>
-      <c r="R107" t="s">
-        <v>617</v>
+      <c r="S107" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D108" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E108" t="n">
-        <v>54.81422189481937</v>
+        <v>629770.9999999998</v>
       </c>
       <c r="F108" t="n">
-        <v>-126.98050994284594</v>
+        <v>6075988.000000001</v>
       </c>
       <c r="G108" t="n">
         <v>5.3</v>
@@ -7945,50 +8293,53 @@
         <v>741.74</v>
       </c>
       <c r="I108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J108" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K108" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="L108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M108" t="n">
         <v>7950.0</v>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>57837.0</v>
       </c>
-      <c r="N108"/>
-      <c r="O108" t="s">
-        <v>58</v>
-      </c>
-      <c r="P108"/>
-      <c r="Q108" t="n">
+      <c r="O108"/>
+      <c r="P108" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q108"/>
+      <c r="R108" t="n">
         <v>107.0</v>
       </c>
-      <c r="R108" t="s">
-        <v>618</v>
+      <c r="S108" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D109" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E109" t="n">
-        <v>54.80075259455632</v>
+        <v>616207.0000000003</v>
       </c>
       <c r="F109" t="n">
-        <v>-127.192218720838</v>
+        <v>6074118.0</v>
       </c>
       <c r="G109" t="n">
         <v>28.0</v>
@@ -7997,50 +8348,53 @@
         <v>3489.83</v>
       </c>
       <c r="I109" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J109" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K109" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M109" t="n">
         <v>8403.0</v>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>58235.0</v>
       </c>
-      <c r="N109"/>
-      <c r="O109" t="s">
-        <v>58</v>
-      </c>
-      <c r="P109"/>
-      <c r="Q109" t="n">
+      <c r="O109"/>
+      <c r="P109" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q109"/>
+      <c r="R109" t="n">
         <v>108.0</v>
       </c>
-      <c r="R109" t="s">
-        <v>619</v>
+      <c r="S109" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D110" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E110" t="n">
-        <v>54.804940038850376</v>
+        <v>615888.9999999997</v>
       </c>
       <c r="F110" t="n">
-        <v>-127.19697980028222</v>
+        <v>6074575.999999999</v>
       </c>
       <c r="G110" t="n">
         <v>25.8</v>
@@ -8049,50 +8403,53 @@
         <v>3215.18</v>
       </c>
       <c r="I110" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="J110" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K110" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M110" t="n">
         <v>8404.0</v>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>58271.0</v>
       </c>
-      <c r="N110"/>
-      <c r="O110" t="s">
-        <v>58</v>
-      </c>
-      <c r="P110"/>
-      <c r="Q110" t="n">
+      <c r="O110"/>
+      <c r="P110" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q110"/>
+      <c r="R110" t="n">
         <v>109.0</v>
       </c>
-      <c r="R110" t="s">
-        <v>620</v>
+      <c r="S110" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E111" t="n">
-        <v>54.83916099774445</v>
+        <v>622536.9999999998</v>
       </c>
       <c r="F111" t="n">
-        <v>-127.09192350753972</v>
+        <v>6078561.9999999935</v>
       </c>
       <c r="G111" t="n">
         <v>3.1</v>
@@ -8101,52 +8458,55 @@
         <v>1035.67</v>
       </c>
       <c r="I111" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J111" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K111" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="L111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M111" t="n">
         <v>9095.0</v>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>58360.0</v>
       </c>
-      <c r="N111" t="n">
+      <c r="O111" t="n">
         <v>1802901.0</v>
       </c>
-      <c r="O111" t="s">
-        <v>58</v>
-      </c>
-      <c r="P111"/>
-      <c r="Q111" t="n">
+      <c r="P111" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q111"/>
+      <c r="R111" t="n">
         <v>110.0</v>
       </c>
-      <c r="R111" t="s">
-        <v>621</v>
+      <c r="S111" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E112" t="n">
-        <v>55.03301467884132</v>
+        <v>606435.9999999998</v>
       </c>
       <c r="F112" t="n">
-        <v>-127.33467145791771</v>
+        <v>6099732.999999996</v>
       </c>
       <c r="G112" t="n">
         <v>4.4</v>
@@ -8155,50 +8515,53 @@
         <v>410.19</v>
       </c>
       <c r="I112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J112" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="K112" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M112" t="n">
         <v>8587.0</v>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>123775.0</v>
       </c>
-      <c r="N112"/>
-      <c r="O112" t="s">
-        <v>58</v>
-      </c>
-      <c r="P112"/>
-      <c r="Q112" t="n">
+      <c r="O112"/>
+      <c r="P112" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q112"/>
+      <c r="R112" t="n">
         <v>111.0</v>
       </c>
-      <c r="R112" t="s">
-        <v>622</v>
+      <c r="S112" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C113" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D113" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E113" t="n">
-        <v>55.03672768332713</v>
+        <v>606462.9999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>-127.33409489257893</v>
+        <v>6100146.999999999</v>
       </c>
       <c r="G113" t="n">
         <v>23.0</v>
@@ -8207,52 +8570,55 @@
         <v>6672.53</v>
       </c>
       <c r="I113" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J113" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K113" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M113" t="n">
         <v>9143.0</v>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>123776.0</v>
       </c>
-      <c r="N113" t="n">
+      <c r="O113" t="n">
         <v>2.4703647E7</v>
       </c>
-      <c r="O113" t="s">
-        <v>58</v>
-      </c>
-      <c r="P113"/>
-      <c r="Q113" t="n">
+      <c r="P113" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q113"/>
+      <c r="R113" t="n">
         <v>112.0</v>
       </c>
-      <c r="R113" t="s">
-        <v>623</v>
+      <c r="S113" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C114" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E114" t="n">
-        <v>55.04523502314233</v>
+        <v>607128.0000000007</v>
       </c>
       <c r="F114" t="n">
-        <v>-127.32333277041498</v>
+        <v>6101109.999999998</v>
       </c>
       <c r="G114" t="n">
         <v>6.8</v>
@@ -8261,50 +8627,53 @@
         <v>407.63</v>
       </c>
       <c r="I114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J114" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K114" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M114" t="n">
         <v>9053.0</v>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>123777.0</v>
       </c>
-      <c r="N114"/>
-      <c r="O114" t="s">
-        <v>58</v>
-      </c>
-      <c r="P114"/>
-      <c r="Q114" t="n">
+      <c r="O114"/>
+      <c r="P114" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q114"/>
+      <c r="R114" t="n">
         <v>113.0</v>
       </c>
-      <c r="R114" t="s">
-        <v>624</v>
+      <c r="S114" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C115" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D115" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E115" t="n">
-        <v>55.19474596259031</v>
+        <v>604529.9999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>-127.35787429457224</v>
+        <v>6117693.000000005</v>
       </c>
       <c r="G115" t="n">
         <v>2.1</v>
@@ -8313,50 +8682,53 @@
         <v>484.26</v>
       </c>
       <c r="I115" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J115" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K115" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M115" t="n">
         <v>8151.0</v>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>124466.0</v>
       </c>
-      <c r="N115"/>
-      <c r="O115" t="s">
-        <v>58</v>
-      </c>
-      <c r="P115"/>
-      <c r="Q115" t="n">
+      <c r="O115"/>
+      <c r="P115" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q115"/>
+      <c r="R115" t="n">
         <v>114.0</v>
       </c>
-      <c r="R115" t="s">
-        <v>625</v>
+      <c r="S115" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C116" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D116" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E116" t="n">
-        <v>55.156157346747165</v>
+        <v>603072.9999999993</v>
       </c>
       <c r="F116" t="n">
-        <v>-127.38232922276303</v>
+        <v>6113363.000000001</v>
       </c>
       <c r="G116" t="n">
         <v>15.2</v>
@@ -8365,50 +8737,53 @@
         <v>4352.71</v>
       </c>
       <c r="I116" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J116" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K116" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M116" t="n">
         <v>9081.0</v>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>124487.0</v>
       </c>
-      <c r="N116"/>
-      <c r="O116" t="s">
-        <v>58</v>
-      </c>
-      <c r="P116"/>
-      <c r="Q116" t="n">
+      <c r="O116"/>
+      <c r="P116" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q116"/>
+      <c r="R116" t="n">
         <v>115.0</v>
       </c>
-      <c r="R116" t="s">
-        <v>626</v>
+      <c r="S116" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C117" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E117" t="n">
-        <v>55.08400287122926</v>
+        <v>620155.9999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>-127.11758779404546</v>
+        <v>6105758.0</v>
       </c>
       <c r="G117" t="n">
         <v>0.4</v>
@@ -8417,50 +8792,53 @@
         <v>132.51</v>
       </c>
       <c r="I117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J117" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="K117" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="L117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M117" t="n">
         <v>8643.0</v>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>123787.0</v>
       </c>
-      <c r="N117"/>
-      <c r="O117" t="s">
-        <v>58</v>
-      </c>
-      <c r="P117"/>
-      <c r="Q117" t="n">
+      <c r="O117"/>
+      <c r="P117" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q117"/>
+      <c r="R117" t="n">
         <v>116.0</v>
       </c>
-      <c r="R117" t="s">
-        <v>627</v>
+      <c r="S117" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C118" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E118" t="n">
-        <v>55.09399474089042</v>
+        <v>616099.9999999993</v>
       </c>
       <c r="F118" t="n">
-        <v>-127.18068449302257</v>
+        <v>6106762.999999998</v>
       </c>
       <c r="G118" t="n">
         <v>0.5</v>
@@ -8469,100 +8847,106 @@
         <v>90.3</v>
       </c>
       <c r="I118" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J118" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K118" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="L118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M118" t="n">
         <v>8400.0</v>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>123794.0</v>
       </c>
-      <c r="N118"/>
-      <c r="O118" t="s">
-        <v>58</v>
-      </c>
-      <c r="P118"/>
-      <c r="Q118" t="n">
+      <c r="O118"/>
+      <c r="P118" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q118"/>
+      <c r="R118" t="n">
         <v>117.0</v>
       </c>
-      <c r="R118" t="s">
-        <v>628</v>
+      <c r="S118" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D119" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E119" t="n">
-        <v>55.09523282228144</v>
+        <v>615759.9999999995</v>
       </c>
       <c r="F119" t="n">
-        <v>-127.18595691780015</v>
+        <v>6106892.0</v>
       </c>
       <c r="G119" t="n">
         <v>1.4</v>
       </c>
       <c r="H119"/>
       <c r="I119" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J119" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="K119" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M119" t="n">
         <v>8646.0</v>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>123795.0</v>
       </c>
-      <c r="N119"/>
-      <c r="O119" t="s">
-        <v>58</v>
-      </c>
-      <c r="P119"/>
-      <c r="Q119" t="n">
+      <c r="O119"/>
+      <c r="P119" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q119"/>
+      <c r="R119" t="n">
         <v>118.0</v>
       </c>
-      <c r="R119" t="s">
-        <v>629</v>
+      <c r="S119" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D120" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E120" t="n">
-        <v>55.29329324927053</v>
+        <v>587365.9999999993</v>
       </c>
       <c r="F120" t="n">
-        <v>-127.62413430997722</v>
+        <v>6128291.999999996</v>
       </c>
       <c r="G120" t="n">
         <v>7.0</v>
@@ -8571,50 +8955,53 @@
         <v>1973.47</v>
       </c>
       <c r="I120" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="J120" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="K120" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M120" t="n">
         <v>8956.0</v>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>124430.0</v>
       </c>
-      <c r="N120"/>
-      <c r="O120" t="s">
-        <v>58</v>
-      </c>
-      <c r="P120"/>
-      <c r="Q120" t="n">
+      <c r="O120"/>
+      <c r="P120" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q120"/>
+      <c r="R120" t="n">
         <v>119.0</v>
       </c>
-      <c r="R120" t="s">
-        <v>630</v>
+      <c r="S120" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D121" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E121" t="n">
-        <v>55.28374104043684</v>
+        <v>587634.9999999998</v>
       </c>
       <c r="F121" t="n">
-        <v>-127.62022917693176</v>
+        <v>6127234.000000002</v>
       </c>
       <c r="G121" t="n">
         <v>7.0</v>
@@ -8623,50 +9010,53 @@
         <v>1973.47</v>
       </c>
       <c r="I121" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J121" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="K121" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M121" t="n">
         <v>8955.0</v>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>124434.0</v>
       </c>
-      <c r="N121"/>
-      <c r="O121" t="s">
-        <v>58</v>
-      </c>
-      <c r="P121"/>
-      <c r="Q121" t="n">
+      <c r="O121"/>
+      <c r="P121" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q121"/>
+      <c r="R121" t="n">
         <v>120.0</v>
       </c>
-      <c r="R121" t="s">
-        <v>631</v>
+      <c r="S121" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C122" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D122" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E122" t="n">
-        <v>55.21044375160352</v>
+        <v>597427.0</v>
       </c>
       <c r="F122" t="n">
-        <v>-127.46886689966885</v>
+        <v>6119279.000000002</v>
       </c>
       <c r="G122" t="n">
         <v>2.0</v>
@@ -8675,30 +9065,135 @@
         <v>2808.47</v>
       </c>
       <c r="I122" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J122" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K122" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="L122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M122" t="n">
         <v>8979.0</v>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>124447.0</v>
       </c>
-      <c r="N122"/>
-      <c r="O122" t="s">
-        <v>58</v>
-      </c>
-      <c r="P122"/>
-      <c r="Q122" t="n">
+      <c r="O122"/>
+      <c r="P122" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q122"/>
+      <c r="R122" t="n">
         <v>121.0</v>
       </c>
-      <c r="R122" t="s">
-        <v>632</v>
+      <c r="S122" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" t="s">
+        <v>256</v>
+      </c>
+      <c r="E123" t="n">
+        <v>649935.9999999991</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5992406.000000002</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123" t="s">
+        <v>298</v>
+      </c>
+      <c r="J123" t="s">
+        <v>350</v>
+      </c>
+      <c r="K123" t="s">
+        <v>59</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>49450.0</v>
+      </c>
+      <c r="N123"/>
+      <c r="O123" t="n">
+        <v>1.4000711E7</v>
+      </c>
+      <c r="P123" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q123"/>
+      <c r="R123" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="S123" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" t="s">
+        <v>257</v>
+      </c>
+      <c r="E124" t="n">
+        <v>642667.0000000006</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5998509.0</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124" t="s">
+        <v>282</v>
+      </c>
+      <c r="J124" t="s">
+        <v>350</v>
+      </c>
+      <c r="K124" t="s">
+        <v>59</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>75748.0</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124" t="n">
+        <v>1.4001178E7</v>
+      </c>
+      <c r="P124" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q124"/>
+      <c r="R124" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="S124" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -8716,354 +9211,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B1" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C1" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B2" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="C2" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B3" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="C3" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B4" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="C4" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="B5" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C5" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B6" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="C6" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="C7" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="B8" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="C8" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B9" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B10" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C10" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B11" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C11" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B12" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="C12" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B13" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="C13" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="B14" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="C14" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="B15" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="C15" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="B16" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="C16" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B17" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="C17" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B18" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C18" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B19" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="C19" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B20" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="C20" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B21" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="C21" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="B22" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="C22" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="B23" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="C23" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="B24" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C24" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B25" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="C25" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="B26" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="C26" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B27" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="C27" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="B28" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="C28" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="B29" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="C29" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B30" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C30" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="B31" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="C31" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="B32" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="C32" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
